--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D887734-30F9-4CC0-8744-1B3998FA2B86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BB69E6-A85F-42DB-824D-44BAA7CEC4A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15660" windowHeight="3470" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15660" windowHeight="3470" tabRatio="780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="184">
   <si>
     <t>Transport Type</t>
   </si>
@@ -561,62 +561,31 @@
     <t>Awaiting Response</t>
   </si>
   <si>
-    <t>799ADB8A7085E548F028B750D22A92AD</t>
-  </si>
-  <si>
-    <t>AbhishekOrg35548</t>
-  </si>
-  <si>
-    <t>AbhishekFNwcmyt</t>
-  </si>
-  <si>
-    <t>AbhishekLNwcmyt</t>
-  </si>
-  <si>
-    <t>AbhishekFNgvglo AbhishekLNgvglo</t>
-  </si>
-  <si>
-    <t>abhishektest35548@gmail.com</t>
-  </si>
-  <si>
-    <t>8651861863</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>7F41AF1182A8230D91C31BA598788C7F</t>
   </si>
   <si>
-    <t>AbhishekOrg24138</t>
-  </si>
-  <si>
-    <t>AbhishekFNmdvuc</t>
-  </si>
-  <si>
-    <t>AbhishekLNmdvuc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>AbhishekFNwcmyt AbhishekLNwcmyt</t>
-  </si>
-  <si>
-    <t>@.</t>
-  </si>
-  <si>
-    <t>abhishektest24138@gmail.com</t>
-  </si>
-  <si>
-    <t>6999550001</t>
+    <t>AbhishekOrg2413821</t>
+  </si>
+  <si>
+    <t>AbhishekFNmdvsauc</t>
+  </si>
+  <si>
+    <t>AbhishekLNsamdvuc</t>
+  </si>
+  <si>
+    <t>abhishektest2413821@gmail.com</t>
+  </si>
+  <si>
+    <t>6999552301</t>
+  </si>
+  <si>
+    <t>AbhishekFNmdvsauc AbhishekLNsamdvuc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1020,9 +989,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.08984375"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.54296875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.90625"/>
+    <col min="1" max="1" width="34.08984375" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1035,8 +1004,8 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
-        <v>185</v>
+      <c r="A2" t="s">
+        <v>177</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -1050,29 +1019,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.6328125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.6328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.453125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.1796875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.26953125"/>
-    <col min="6" max="7" customWidth="true" style="4" width="19.26953125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.54296875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="9.36328125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.36328125"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="8.08984375"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.26953125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="5.08984375"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="16.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="15.7265625"/>
-    <col min="16" max="16" customWidth="true" width="35.7265625"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="5.453125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.6328125"/>
+    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19.26953125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.7265625" customWidth="1"/>
+    <col min="17" max="17" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
@@ -1133,7 +1102,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1172,19 +1141,19 @@
         <v>77</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1200,23 +1169,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.54296875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.7265625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.1796875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="25.81640625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="17.0"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.54296875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.7265625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.0"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="9.1796875"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1255,11 +1224,11 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>186</v>
+      <c r="A2" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>98</v>
@@ -1325,16 +1294,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="23.81640625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.7265625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.90625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.81640625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.6328125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.6328125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.81640625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.0"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="17.1796875"/>
+    <col min="1" max="1" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1429,10 +1398,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.1796875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.81640625"/>
+    <col min="1" max="1" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1450,16 +1419,16 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>104</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1479,10 +1448,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.36328125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.453125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.90625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.90625"/>
+    <col min="1" max="1" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1494,7 +1463,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>134</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1517,17 +1486,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.54296875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7265625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.26953125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="25.1796875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.1796875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.26953125"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7265625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.36328125"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.08984375"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="16.54296875"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
@@ -1575,222 +1544,222 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>52</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>54</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" t="s">
         <v>57</v>
       </c>
-      <c r="M2" t="s" s="0">
+      <c r="M2" t="s">
         <v>163</v>
       </c>
-      <c r="N2" t="s" s="0">
+      <c r="N2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="H3" t="s">
         <v>53</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="M3" t="s" s="0">
+      <c r="M3" t="s">
         <v>164</v>
       </c>
-      <c r="N3" t="s" s="0">
+      <c r="N3" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="I4" t="s">
         <v>56</v>
       </c>
-      <c r="M4" t="s" s="0">
+      <c r="M4" t="s">
         <v>165</v>
       </c>
-      <c r="N4" t="s" s="0">
+      <c r="N4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="M5" t="s" s="0">
+      <c r="M5" t="s">
         <v>156</v>
       </c>
-      <c r="N5" t="s" s="0">
+      <c r="N5" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" t="s" s="0">
+      <c r="G6" t="s">
         <v>36</v>
       </c>
-      <c r="M6" t="s" s="0">
+      <c r="M6" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="G7" t="s" s="0">
+      <c r="G7" t="s">
         <v>37</v>
       </c>
-      <c r="M7" t="s" s="0">
+      <c r="M7" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G8" t="s" s="0">
+      <c r="G8" t="s">
         <v>38</v>
       </c>
-      <c r="M8" t="s" s="0">
+      <c r="M8" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G9" t="s" s="0">
+      <c r="G9" t="s">
         <v>39</v>
       </c>
-      <c r="M9" t="s" s="0">
+      <c r="M9" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G10" t="s" s="0">
+      <c r="G10" t="s">
         <v>40</v>
       </c>
-      <c r="M10" t="s" s="0">
+      <c r="M10" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G11" t="s" s="0">
+      <c r="G11" t="s">
         <v>41</v>
       </c>
-      <c r="M11" t="s" s="0">
+      <c r="M11" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G12" t="s" s="0">
+      <c r="G12" t="s">
         <v>42</v>
       </c>
-      <c r="M12" t="s" s="0">
+      <c r="M12" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G13" t="s" s="0">
+      <c r="G13" t="s">
         <v>43</v>
       </c>
-      <c r="M13" t="s" s="0">
+      <c r="M13" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G14" t="s" s="0">
+      <c r="G14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G15" t="s" s="0">
+      <c r="G15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G16" t="s" s="0">
+      <c r="G16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G17" t="s" s="0">
+      <c r="G17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G18" t="s" s="0">
+      <c r="G18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G19" t="s" s="0">
+      <c r="G19" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G20" t="s" s="0">
+      <c r="G20" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G21" t="s" s="0">
+      <c r="G21" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1810,9 +1779,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.90625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.26953125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.6328125"/>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1827,13 +1796,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>139</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>140</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1853,17 +1822,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="29.453125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="31.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.453125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.81640625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.90625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.6328125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="15.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="4" width="13.453125"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="4" width="12.54296875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="4" width="14.7265625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.36328125"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1902,19 +1871,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>150</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>151</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>152</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>153</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>154</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1932,7 +1901,7 @@
       <c r="J2" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>134</v>
       </c>
     </row>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="193">
   <si>
     <t>Transport Type</t>
   </si>
@@ -580,12 +580,40 @@
   </si>
   <si>
     <t>AbhishekFNmdvsauc AbhishekLNsamdvuc</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>49F767E0D0739D4220103FF63546F4EF</t>
+  </si>
+  <si>
+    <t>3F217EF9BC03B28604F6E3ACC5C64CB7</t>
+  </si>
+  <si>
+    <t>B16E125A253E89219B6E4BF0D7552621</t>
+  </si>
+  <si>
+    <t>7527C5563E0E6B5D11BE185016E25888</t>
+  </si>
+  <si>
+    <t>EDF5A5ED9BA34A89FE4FBB6C73805096</t>
+  </si>
+  <si>
+    <t>93D08F62D3B7465B3EEED42C8A7D0DF9</t>
+  </si>
+  <si>
+    <t>5F1C49A72F232A9EFC1CADBFB29CFAD4</t>
+  </si>
+  <si>
+    <t>F6031A5FB027FCF46C2D28B5E2C0266B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -989,9 +1017,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.08984375" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="34.08984375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.54296875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.90625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1004,8 +1032,8 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>177</v>
+      <c r="A2" t="s" s="0">
+        <v>192</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -1025,23 +1053,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="19.26953125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.7265625" customWidth="1"/>
-    <col min="17" max="17" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.6328125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.6328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.453125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.1796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.26953125"/>
+    <col min="6" max="7" customWidth="true" style="4" width="19.26953125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.36328125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="7.36328125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="8.08984375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.26953125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="5.08984375"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="16.26953125"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="16.1796875"/>
+    <col min="16" max="16" customWidth="true" width="35.7265625"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.453125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.6328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
@@ -1175,17 +1203,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.54296875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="32.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.36328125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="25.81640625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="17.0"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.7265625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.0"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="9.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1294,16 +1322,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.81640625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.7265625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.90625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.81640625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.6328125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.6328125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.81640625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="17.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1398,10 +1426,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1419,16 +1447,16 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>104</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>131</v>
       </c>
     </row>
@@ -1448,10 +1476,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.36328125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.453125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.90625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.90625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1463,7 +1491,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>134</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1486,17 +1514,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.54296875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7265625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.26953125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.1796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.1796875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7265625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.36328125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="22.08984375"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="16.54296875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
@@ -1544,222 +1572,222 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" t="s" s="0">
         <v>163</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" t="s" s="0">
         <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" t="s" s="0">
         <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" t="s" s="0">
         <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" t="s" s="0">
         <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" t="s" s="0">
         <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" t="s" s="0">
         <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" t="s" s="0">
         <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" t="s" s="0">
         <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" t="s" s="0">
         <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" t="s" s="0">
         <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" t="s" s="0">
         <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="0">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G16" t="s">
+      <c r="G16" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G21" t="s">
+      <c r="G21" t="s" s="0">
         <v>51</v>
       </c>
     </row>
@@ -1779,9 +1807,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.90625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.26953125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.6328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1796,13 +1824,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>141</v>
       </c>
     </row>
@@ -1822,17 +1850,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.453125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.453125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.81640625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.90625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.6328125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="15.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="4" width="13.453125"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="4" width="12.54296875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="4" width="14.7265625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="14.36328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1871,19 +1899,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>150</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>151</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>154</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1901,7 +1929,7 @@
       <c r="J2" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>134</v>
       </c>
     </row>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BB69E6-A85F-42DB-824D-44BAA7CEC4A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E30B8832-A700-4D9F-9DF3-1B77D41C0633}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15660" windowHeight="3470" tabRatio="780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7200" windowHeight="3310" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <oleSize ref="D1:F9"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="184">
   <si>
     <t>Transport Type</t>
   </si>
@@ -561,59 +562,31 @@
     <t>Awaiting Response</t>
   </si>
   <si>
-    <t>7F41AF1182A8230D91C31BA598788C7F</t>
-  </si>
-  <si>
-    <t>AbhishekOrg2413821</t>
-  </si>
-  <si>
     <t>AbhishekFNmdvsauc</t>
   </si>
   <si>
     <t>AbhishekLNsamdvuc</t>
   </si>
   <si>
-    <t>abhishektest2413821@gmail.com</t>
-  </si>
-  <si>
-    <t>6999552301</t>
-  </si>
-  <si>
     <t>AbhishekFNmdvsauc AbhishekLNsamdvuc</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>49F767E0D0739D4220103FF63546F4EF</t>
-  </si>
-  <si>
-    <t>3F217EF9BC03B28604F6E3ACC5C64CB7</t>
-  </si>
-  <si>
-    <t>B16E125A253E89219B6E4BF0D7552621</t>
-  </si>
-  <si>
-    <t>7527C5563E0E6B5D11BE185016E25888</t>
-  </si>
-  <si>
-    <t>EDF5A5ED9BA34A89FE4FBB6C73805096</t>
-  </si>
-  <si>
-    <t>93D08F62D3B7465B3EEED42C8A7D0DF9</t>
-  </si>
-  <si>
-    <t>5F1C49A72F232A9EFC1CADBFB29CFAD4</t>
-  </si>
-  <si>
     <t>F6031A5FB027FCF46C2D28B5E2C0266B</t>
+  </si>
+  <si>
+    <t>AbhishekOrg241821</t>
+  </si>
+  <si>
+    <t>abhishektest241821@gmail.com</t>
+  </si>
+  <si>
+    <t>6999552303</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1017,9 +990,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.08984375"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.54296875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.90625"/>
+    <col min="1" max="1" width="34.08984375" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1032,8 +1005,8 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
-        <v>192</v>
+      <c r="A2" t="s">
+        <v>180</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -1047,29 +1020,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.6328125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.6328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.453125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.1796875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.26953125"/>
-    <col min="6" max="7" customWidth="true" style="4" width="19.26953125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.54296875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="9.36328125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.36328125"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="8.08984375"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.26953125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="5.08984375"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="16.26953125"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="16.1796875"/>
-    <col min="16" max="16" customWidth="true" width="35.7265625"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="5.453125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.6328125"/>
+    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19.26953125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.7265625" customWidth="1"/>
+    <col min="17" max="17" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
@@ -1130,7 +1103,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1169,19 +1142,19 @@
         <v>77</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1197,23 +1170,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.54296875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.1796875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.1796875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="25.81640625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="17.0"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.54296875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.7265625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.0"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="9.1796875"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1253,10 +1226,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>98</v>
@@ -1322,16 +1295,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="23.81640625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.7265625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.90625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.81640625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.6328125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.6328125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.81640625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.0"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="17.1796875"/>
+    <col min="1" max="1" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1426,10 +1399,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.1796875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.81640625"/>
+    <col min="1" max="1" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1447,16 +1420,16 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>104</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1476,10 +1449,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.36328125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.453125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.90625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.90625"/>
+    <col min="1" max="1" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1491,7 +1464,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>134</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1514,17 +1487,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.54296875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7265625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.26953125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="25.1796875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.1796875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.26953125"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7265625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.36328125"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.08984375"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="16.54296875"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
@@ -1572,222 +1545,222 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>52</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>54</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" t="s">
         <v>57</v>
       </c>
-      <c r="M2" t="s" s="0">
+      <c r="M2" t="s">
         <v>163</v>
       </c>
-      <c r="N2" t="s" s="0">
+      <c r="N2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="H3" t="s">
         <v>53</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="M3" t="s" s="0">
+      <c r="M3" t="s">
         <v>164</v>
       </c>
-      <c r="N3" t="s" s="0">
+      <c r="N3" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="I4" t="s">
         <v>56</v>
       </c>
-      <c r="M4" t="s" s="0">
+      <c r="M4" t="s">
         <v>165</v>
       </c>
-      <c r="N4" t="s" s="0">
+      <c r="N4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="M5" t="s" s="0">
+      <c r="M5" t="s">
         <v>156</v>
       </c>
-      <c r="N5" t="s" s="0">
+      <c r="N5" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" t="s" s="0">
+      <c r="G6" t="s">
         <v>36</v>
       </c>
-      <c r="M6" t="s" s="0">
+      <c r="M6" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="G7" t="s" s="0">
+      <c r="G7" t="s">
         <v>37</v>
       </c>
-      <c r="M7" t="s" s="0">
+      <c r="M7" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G8" t="s" s="0">
+      <c r="G8" t="s">
         <v>38</v>
       </c>
-      <c r="M8" t="s" s="0">
+      <c r="M8" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G9" t="s" s="0">
+      <c r="G9" t="s">
         <v>39</v>
       </c>
-      <c r="M9" t="s" s="0">
+      <c r="M9" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G10" t="s" s="0">
+      <c r="G10" t="s">
         <v>40</v>
       </c>
-      <c r="M10" t="s" s="0">
+      <c r="M10" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G11" t="s" s="0">
+      <c r="G11" t="s">
         <v>41</v>
       </c>
-      <c r="M11" t="s" s="0">
+      <c r="M11" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G12" t="s" s="0">
+      <c r="G12" t="s">
         <v>42</v>
       </c>
-      <c r="M12" t="s" s="0">
+      <c r="M12" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G13" t="s" s="0">
+      <c r="G13" t="s">
         <v>43</v>
       </c>
-      <c r="M13" t="s" s="0">
+      <c r="M13" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G14" t="s" s="0">
+      <c r="G14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G15" t="s" s="0">
+      <c r="G15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G16" t="s" s="0">
+      <c r="G16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G17" t="s" s="0">
+      <c r="G17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G18" t="s" s="0">
+      <c r="G18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G19" t="s" s="0">
+      <c r="G19" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G20" t="s" s="0">
+      <c r="G20" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G21" t="s" s="0">
+      <c r="G21" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1807,9 +1780,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.90625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.26953125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.6328125"/>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1824,13 +1797,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>139</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>140</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1850,17 +1823,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="29.453125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="31.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.453125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.81640625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.90625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.6328125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="15.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="4" width="13.453125"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="4" width="12.54296875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="4" width="14.7265625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.36328125"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1899,19 +1872,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>150</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>151</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>152</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>153</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>154</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1929,7 +1902,7 @@
       <c r="J2" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>134</v>
       </c>
     </row>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E30B8832-A700-4D9F-9DF3-1B77D41C0633}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{45F14FD4-DBBB-4EF7-9F74-EE135B7E6D28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7200" windowHeight="3310" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7200" windowHeight="3310" tabRatio="780" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="D1:F9"/>
+  <oleSize ref="A1:C9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -562,25 +562,25 @@
     <t>Awaiting Response</t>
   </si>
   <si>
-    <t>AbhishekFNmdvsauc</t>
-  </si>
-  <si>
-    <t>AbhishekLNsamdvuc</t>
-  </si>
-  <si>
-    <t>AbhishekFNmdvsauc AbhishekLNsamdvuc</t>
-  </si>
-  <si>
     <t>F6031A5FB027FCF46C2D28B5E2C0266B</t>
   </si>
   <si>
-    <t>AbhishekOrg241821</t>
-  </si>
-  <si>
-    <t>abhishektest241821@gmail.com</t>
-  </si>
-  <si>
-    <t>6999552303</t>
+    <t>AbhishekOrg221</t>
+  </si>
+  <si>
+    <t>abhishektest221@gmail.com</t>
+  </si>
+  <si>
+    <t>AbhishekFNaa</t>
+  </si>
+  <si>
+    <t>AbhishekLNaa</t>
+  </si>
+  <si>
+    <t>6999566303</t>
+  </si>
+  <si>
+    <t>AbhishekFNaa AbhishekLNaa</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1142,19 +1142,19 @@
         <v>77</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1226,10 +1226,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>98</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{45F14FD4-DBBB-4EF7-9F74-EE135B7E6D28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8D8713F3-E4BE-47BE-BA13-26394AD62C51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7200" windowHeight="3310" tabRatio="780" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14450" windowHeight="3310" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="A1:C9"/>
+  <oleSize ref="P1:Z9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -565,22 +565,22 @@
     <t>F6031A5FB027FCF46C2D28B5E2C0266B</t>
   </si>
   <si>
-    <t>AbhishekOrg221</t>
-  </si>
-  <si>
-    <t>abhishektest221@gmail.com</t>
-  </si>
-  <si>
-    <t>AbhishekFNaa</t>
-  </si>
-  <si>
-    <t>AbhishekLNaa</t>
-  </si>
-  <si>
-    <t>6999566303</t>
-  </si>
-  <si>
-    <t>AbhishekFNaa AbhishekLNaa</t>
+    <t>AbhishekOrg222</t>
+  </si>
+  <si>
+    <t>AbhishekFNab AbhishekLNab</t>
+  </si>
+  <si>
+    <t>6999566304</t>
+  </si>
+  <si>
+    <t>abhishektest222@gmail.com</t>
+  </si>
+  <si>
+    <t>AbhishekFNab</t>
+  </si>
+  <si>
+    <t>AbhishekLNab</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1142,19 +1142,19 @@
         <v>77</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O2" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>179</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1229,7 +1229,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>98</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8D8713F3-E4BE-47BE-BA13-26394AD62C51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{025E58CA-8F4B-49F3-9615-9E1A4AB10F44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14450" windowHeight="3310" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7200" windowHeight="3310" tabRatio="780" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="P1:Z9"/>
+  <oleSize ref="A1:C9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -565,22 +565,22 @@
     <t>F6031A5FB027FCF46C2D28B5E2C0266B</t>
   </si>
   <si>
-    <t>AbhishekOrg222</t>
-  </si>
-  <si>
-    <t>AbhishekFNab AbhishekLNab</t>
-  </si>
-  <si>
-    <t>6999566304</t>
-  </si>
-  <si>
-    <t>abhishektest222@gmail.com</t>
-  </si>
-  <si>
-    <t>AbhishekFNab</t>
-  </si>
-  <si>
-    <t>AbhishekLNab</t>
+    <t>AbhishekOrg2222</t>
+  </si>
+  <si>
+    <t>AbhishekFNabc</t>
+  </si>
+  <si>
+    <t>AbhishekLNabc</t>
+  </si>
+  <si>
+    <t>abhishektest2222@gmail.com</t>
+  </si>
+  <si>
+    <t>9643354556</t>
+  </si>
+  <si>
+    <t>AbhishekFNabc AbhishekLNabc</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1142,10 +1142,10 @@
         <v>77</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>181</v>
@@ -1154,7 +1154,7 @@
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1229,7 +1229,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>98</v>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="E2" s="14" t="str">
         <f>TEXT(E3,"dd-mm-yyyy")</f>
-        <v>26-02-2024</v>
+        <v>26-03-2024</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>100</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E3" s="13">
-        <v>45348</v>
+        <v>45377</v>
       </c>
       <c r="F3" s="4"/>
     </row>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{025E58CA-8F4B-49F3-9615-9E1A4AB10F44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{FF23E209-2693-44A1-A0E6-CEFD9ABB467F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7200" windowHeight="3310" tabRatio="780" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,22 +565,22 @@
     <t>F6031A5FB027FCF46C2D28B5E2C0266B</t>
   </si>
   <si>
-    <t>AbhishekOrg2222</t>
-  </si>
-  <si>
-    <t>AbhishekFNabc</t>
-  </si>
-  <si>
-    <t>AbhishekLNabc</t>
-  </si>
-  <si>
-    <t>abhishektest2222@gmail.com</t>
-  </si>
-  <si>
-    <t>9643354556</t>
-  </si>
-  <si>
-    <t>AbhishekFNabc AbhishekLNabc</t>
+    <t>AbhishekOrg2223</t>
+  </si>
+  <si>
+    <t>AbhishekFNabd AbhishekLNabd</t>
+  </si>
+  <si>
+    <t>9643354557</t>
+  </si>
+  <si>
+    <t>abhishektest2223@gmail.com</t>
+  </si>
+  <si>
+    <t>AbhishekLNabd</t>
+  </si>
+  <si>
+    <t>AbhishekFNabd</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1142,10 +1142,10 @@
         <v>77</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>181</v>
@@ -1154,7 +1154,7 @@
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1229,7 +1229,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>98</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{FF23E209-2693-44A1-A0E6-CEFD9ABB467F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{856AB0AB-2A51-41EA-8171-9D52CCA76A62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7200" windowHeight="3310" tabRatio="780" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7200" windowHeight="3310" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="A1:C9"/>
+  <oleSize ref="A1:D9"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="208">
   <si>
     <t>Transport Type</t>
   </si>
@@ -562,31 +562,104 @@
     <t>Awaiting Response</t>
   </si>
   <si>
-    <t>F6031A5FB027FCF46C2D28B5E2C0266B</t>
-  </si>
-  <si>
-    <t>AbhishekOrg2223</t>
-  </si>
-  <si>
     <t>AbhishekFNabd AbhishekLNabd</t>
   </si>
   <si>
-    <t>9643354557</t>
-  </si>
-  <si>
-    <t>abhishektest2223@gmail.com</t>
-  </si>
-  <si>
-    <t>AbhishekLNabd</t>
-  </si>
-  <si>
-    <t>AbhishekFNabd</t>
+    <t>E6EB478DAFAA724F6C8B5E05171C153C</t>
+  </si>
+  <si>
+    <t>AbhishekOrg98975</t>
+  </si>
+  <si>
+    <t>AbhishekFNalsqn</t>
+  </si>
+  <si>
+    <t>AbhishekLNalsqn</t>
+  </si>
+  <si>
+    <t>abhishektest98975@gmail.com</t>
+  </si>
+  <si>
+    <t>6022850242</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>6DFC81C16CBC7AF78920E2EF84A18A13</t>
+  </si>
+  <si>
+    <t>AbhishekOrg59877</t>
+  </si>
+  <si>
+    <t>AbhishekFNkyybq</t>
+  </si>
+  <si>
+    <t>AbhishekLNkyybq</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>AbhishekFNalsqn AbhishekLNalsqn</t>
+  </si>
+  <si>
+    <t>@.</t>
+  </si>
+  <si>
+    <t>abhishektest59877@gmail.com</t>
+  </si>
+  <si>
+    <t>6934449722</t>
+  </si>
+  <si>
+    <t>CD240A0C0D7816EF3AA756CA852C87DA</t>
+  </si>
+  <si>
+    <t>AbhishekOrg42791</t>
+  </si>
+  <si>
+    <t>AbhishekFNkaeis</t>
+  </si>
+  <si>
+    <t>AbhishekLNkaeis</t>
+  </si>
+  <si>
+    <t>AbhishekFNkyybq AbhishekLNkyybq</t>
+  </si>
+  <si>
+    <t>abhishektest42791@gmail.com</t>
+  </si>
+  <si>
+    <t>8525032467</t>
+  </si>
+  <si>
+    <t>981E5E1C542A86E333D457D786299A46</t>
+  </si>
+  <si>
+    <t>AbhishekOrg91012</t>
+  </si>
+  <si>
+    <t>AbhishekFNojesv</t>
+  </si>
+  <si>
+    <t>AbhishekLNojesv</t>
+  </si>
+  <si>
+    <t>AbhishekFNkaeis AbhishekLNkaeis</t>
+  </si>
+  <si>
+    <t>abhishektest91012@gmail.com</t>
+  </si>
+  <si>
+    <t>8336052699</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -990,9 +1063,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.08984375" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="34.08984375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.54296875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.90625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1005,8 +1078,8 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>177</v>
+      <c r="A2" t="s" s="0">
+        <v>201</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -1020,29 +1093,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="19.26953125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.7265625" customWidth="1"/>
-    <col min="17" max="17" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.6328125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.6328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.453125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.1796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.26953125"/>
+    <col min="6" max="7" customWidth="true" style="4" width="19.26953125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.36328125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="7.36328125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="8.08984375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.26953125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="5.08984375"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="16.26953125"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="16.1796875"/>
+    <col min="16" max="16" customWidth="true" width="35.7265625"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.453125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.6328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
@@ -1103,7 +1176,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1142,19 +1215,19 @@
         <v>77</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -1170,23 +1243,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.54296875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="32.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.36328125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="25.81640625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="17.0"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.7265625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.0"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="9.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1226,10 +1299,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>98</v>
@@ -1295,16 +1368,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.81640625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.7265625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.90625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.81640625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.6328125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.6328125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.81640625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="17.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1399,10 +1472,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1420,16 +1493,16 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>104</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>131</v>
       </c>
     </row>
@@ -1449,10 +1522,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.36328125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.453125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.90625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.90625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1464,7 +1537,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>134</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1487,17 +1560,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.54296875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7265625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.26953125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.1796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.1796875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7265625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.36328125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="22.08984375"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="16.54296875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
@@ -1545,222 +1618,222 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" t="s" s="0">
         <v>163</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" t="s" s="0">
         <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" t="s" s="0">
         <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" t="s" s="0">
         <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" t="s" s="0">
         <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" t="s" s="0">
         <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" t="s" s="0">
         <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" t="s" s="0">
         <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" t="s" s="0">
         <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" t="s" s="0">
         <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" t="s" s="0">
         <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" t="s" s="0">
         <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="0">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G16" t="s">
+      <c r="G16" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G21" t="s">
+      <c r="G21" t="s" s="0">
         <v>51</v>
       </c>
     </row>
@@ -1780,9 +1853,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.90625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.26953125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.6328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1797,13 +1870,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>141</v>
       </c>
     </row>
@@ -1823,17 +1896,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.453125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.453125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.81640625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.90625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.6328125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="15.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="4" width="13.453125"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="4" width="12.54296875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="4" width="14.7265625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="14.36328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1872,19 +1945,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>150</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>151</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>154</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1902,7 +1975,7 @@
       <c r="J2" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>134</v>
       </c>
     </row>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="222">
   <si>
     <t>Transport Type</t>
   </si>
@@ -653,6 +653,48 @@
   </si>
   <si>
     <t>8336052699</t>
+  </si>
+  <si>
+    <t>BF6D8E85B9E8639C83C76BF33A9D7F29</t>
+  </si>
+  <si>
+    <t>AbhishekOrg50312</t>
+  </si>
+  <si>
+    <t>AbhishekFNusyhx</t>
+  </si>
+  <si>
+    <t>AbhishekLNusyhx</t>
+  </si>
+  <si>
+    <t>AbhishekFNojesv AbhishekLNojesv</t>
+  </si>
+  <si>
+    <t>abhishektest50312@gmail.com</t>
+  </si>
+  <si>
+    <t>6394946167</t>
+  </si>
+  <si>
+    <t>A7B8256617EFB871FF411B68DEDDF04A</t>
+  </si>
+  <si>
+    <t>AbhishekOrg86939</t>
+  </si>
+  <si>
+    <t>AbhishekFNiclkh</t>
+  </si>
+  <si>
+    <t>AbhishekLNiclkh</t>
+  </si>
+  <si>
+    <t>AbhishekFNusyhx AbhishekLNusyhx</t>
+  </si>
+  <si>
+    <t>abhishektest86939@gmail.com</t>
+  </si>
+  <si>
+    <t>8565827125</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1121,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -1176,7 +1218,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1215,19 +1257,19 @@
         <v>77</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -1299,10 +1341,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>98</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{856AB0AB-2A51-41EA-8171-9D52CCA76A62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7336A9CB-E2E4-415E-8F8B-5F26043B65C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7200" windowHeight="3310" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14450" windowHeight="1660" tabRatio="780" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="A1:D9"/>
+  <oleSize ref="A1:F3"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="184">
   <si>
     <t>Transport Type</t>
   </si>
@@ -562,126 +562,9 @@
     <t>Awaiting Response</t>
   </si>
   <si>
-    <t>AbhishekFNabd AbhishekLNabd</t>
-  </si>
-  <si>
-    <t>E6EB478DAFAA724F6C8B5E05171C153C</t>
-  </si>
-  <si>
-    <t>AbhishekOrg98975</t>
-  </si>
-  <si>
-    <t>AbhishekFNalsqn</t>
-  </si>
-  <si>
-    <t>AbhishekLNalsqn</t>
-  </si>
-  <si>
-    <t>abhishektest98975@gmail.com</t>
-  </si>
-  <si>
-    <t>6022850242</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>6DFC81C16CBC7AF78920E2EF84A18A13</t>
-  </si>
-  <si>
-    <t>AbhishekOrg59877</t>
-  </si>
-  <si>
-    <t>AbhishekFNkyybq</t>
-  </si>
-  <si>
-    <t>AbhishekLNkyybq</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>AbhishekFNalsqn AbhishekLNalsqn</t>
-  </si>
-  <si>
-    <t>@.</t>
-  </si>
-  <si>
-    <t>abhishektest59877@gmail.com</t>
-  </si>
-  <si>
-    <t>6934449722</t>
-  </si>
-  <si>
-    <t>CD240A0C0D7816EF3AA756CA852C87DA</t>
-  </si>
-  <si>
-    <t>AbhishekOrg42791</t>
-  </si>
-  <si>
-    <t>AbhishekFNkaeis</t>
-  </si>
-  <si>
-    <t>AbhishekLNkaeis</t>
-  </si>
-  <si>
-    <t>AbhishekFNkyybq AbhishekLNkyybq</t>
-  </si>
-  <si>
-    <t>abhishektest42791@gmail.com</t>
-  </si>
-  <si>
-    <t>8525032467</t>
-  </si>
-  <si>
-    <t>981E5E1C542A86E333D457D786299A46</t>
-  </si>
-  <si>
-    <t>AbhishekOrg91012</t>
-  </si>
-  <si>
-    <t>AbhishekFNojesv</t>
-  </si>
-  <si>
-    <t>AbhishekLNojesv</t>
-  </si>
-  <si>
-    <t>AbhishekFNkaeis AbhishekLNkaeis</t>
-  </si>
-  <si>
-    <t>abhishektest91012@gmail.com</t>
-  </si>
-  <si>
-    <t>8336052699</t>
-  </si>
-  <si>
-    <t>BF6D8E85B9E8639C83C76BF33A9D7F29</t>
-  </si>
-  <si>
-    <t>AbhishekOrg50312</t>
-  </si>
-  <si>
-    <t>AbhishekFNusyhx</t>
-  </si>
-  <si>
-    <t>AbhishekLNusyhx</t>
-  </si>
-  <si>
-    <t>AbhishekFNojesv AbhishekLNojesv</t>
-  </si>
-  <si>
-    <t>abhishektest50312@gmail.com</t>
-  </si>
-  <si>
-    <t>6394946167</t>
-  </si>
-  <si>
     <t>A7B8256617EFB871FF411B68DEDDF04A</t>
   </si>
   <si>
-    <t>AbhishekOrg86939</t>
-  </si>
-  <si>
     <t>AbhishekFNiclkh</t>
   </si>
   <si>
@@ -691,17 +574,19 @@
     <t>AbhishekFNusyhx AbhishekLNusyhx</t>
   </si>
   <si>
-    <t>abhishektest86939@gmail.com</t>
-  </si>
-  <si>
-    <t>8565827125</t>
+    <t>AbhishekOrg86938</t>
+  </si>
+  <si>
+    <t>abhishektest86938@gmail.com</t>
+  </si>
+  <si>
+    <t>8565827124</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1105,9 +990,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.08984375"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.54296875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.90625"/>
+    <col min="1" max="1" width="34.08984375" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1120,8 +1005,8 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
-        <v>215</v>
+      <c r="A2" t="s">
+        <v>177</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -1135,29 +1020,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.6328125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.6328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.453125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.1796875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.26953125"/>
-    <col min="6" max="7" customWidth="true" style="4" width="19.26953125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.54296875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="9.36328125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.36328125"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="8.08984375"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.26953125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="5.08984375"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="16.26953125"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="16.1796875"/>
-    <col min="16" max="16" customWidth="true" width="35.7265625"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="5.453125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.6328125"/>
+    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19.26953125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.7265625" customWidth="1"/>
+    <col min="17" max="17" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
@@ -1218,7 +1103,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1257,19 +1142,19 @@
         <v>77</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1285,23 +1170,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.54296875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.1796875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.1796875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="25.81640625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="17.0"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.54296875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.7265625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.0"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="9.1796875"/>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1341,10 +1226,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>98</v>
@@ -1410,16 +1295,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="23.81640625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.7265625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.90625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.81640625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.6328125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.6328125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.81640625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.0"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="17.1796875"/>
+    <col min="1" max="1" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1514,10 +1399,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.1796875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.81640625"/>
+    <col min="1" max="1" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1535,16 +1420,16 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>104</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1564,10 +1449,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.36328125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.453125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.90625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.90625"/>
+    <col min="1" max="1" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1579,7 +1464,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>134</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1602,17 +1487,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.54296875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7265625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.26953125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="25.1796875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.1796875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.26953125"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7265625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.36328125"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.08984375"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="16.54296875"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
@@ -1660,222 +1545,222 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>52</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>54</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" t="s">
         <v>57</v>
       </c>
-      <c r="M2" t="s" s="0">
+      <c r="M2" t="s">
         <v>163</v>
       </c>
-      <c r="N2" t="s" s="0">
+      <c r="N2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="H3" t="s">
         <v>53</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="M3" t="s" s="0">
+      <c r="M3" t="s">
         <v>164</v>
       </c>
-      <c r="N3" t="s" s="0">
+      <c r="N3" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="I4" t="s">
         <v>56</v>
       </c>
-      <c r="M4" t="s" s="0">
+      <c r="M4" t="s">
         <v>165</v>
       </c>
-      <c r="N4" t="s" s="0">
+      <c r="N4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="M5" t="s" s="0">
+      <c r="M5" t="s">
         <v>156</v>
       </c>
-      <c r="N5" t="s" s="0">
+      <c r="N5" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" t="s" s="0">
+      <c r="G6" t="s">
         <v>36</v>
       </c>
-      <c r="M6" t="s" s="0">
+      <c r="M6" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="G7" t="s" s="0">
+      <c r="G7" t="s">
         <v>37</v>
       </c>
-      <c r="M7" t="s" s="0">
+      <c r="M7" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G8" t="s" s="0">
+      <c r="G8" t="s">
         <v>38</v>
       </c>
-      <c r="M8" t="s" s="0">
+      <c r="M8" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G9" t="s" s="0">
+      <c r="G9" t="s">
         <v>39</v>
       </c>
-      <c r="M9" t="s" s="0">
+      <c r="M9" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G10" t="s" s="0">
+      <c r="G10" t="s">
         <v>40</v>
       </c>
-      <c r="M10" t="s" s="0">
+      <c r="M10" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G11" t="s" s="0">
+      <c r="G11" t="s">
         <v>41</v>
       </c>
-      <c r="M11" t="s" s="0">
+      <c r="M11" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G12" t="s" s="0">
+      <c r="G12" t="s">
         <v>42</v>
       </c>
-      <c r="M12" t="s" s="0">
+      <c r="M12" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G13" t="s" s="0">
+      <c r="G13" t="s">
         <v>43</v>
       </c>
-      <c r="M13" t="s" s="0">
+      <c r="M13" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G14" t="s" s="0">
+      <c r="G14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G15" t="s" s="0">
+      <c r="G15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G16" t="s" s="0">
+      <c r="G16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G17" t="s" s="0">
+      <c r="G17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G18" t="s" s="0">
+      <c r="G18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G19" t="s" s="0">
+      <c r="G19" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G20" t="s" s="0">
+      <c r="G20" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G21" t="s" s="0">
+      <c r="G21" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1895,9 +1780,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.90625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.26953125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.6328125"/>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1912,13 +1797,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>139</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>140</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1938,17 +1823,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="29.453125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="31.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.453125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.81640625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.90625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.6328125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="15.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="4" width="13.453125"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="4" width="12.54296875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="4" width="14.7265625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.36328125"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1987,19 +1872,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>150</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>151</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>152</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>153</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>154</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -2017,7 +1902,7 @@
       <c r="J2" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>134</v>
       </c>
     </row>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7336A9CB-E2E4-415E-8F8B-5F26043B65C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A9DE6A38-513B-4462-9F06-B9924ACDBC1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14450" windowHeight="1660" tabRatio="780" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7520" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="A1:F3"/>
+  <oleSize ref="B1:E7"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="196">
   <si>
     <t>Transport Type</t>
   </si>
@@ -574,19 +574,56 @@
     <t>AbhishekFNusyhx AbhishekLNusyhx</t>
   </si>
   <si>
-    <t>AbhishekOrg86938</t>
-  </si>
-  <si>
-    <t>abhishektest86938@gmail.com</t>
-  </si>
-  <si>
-    <t>8565827124</t>
+    <t>AbhishekOrg86937</t>
+  </si>
+  <si>
+    <t>abhishektest86937@gmail.com</t>
+  </si>
+  <si>
+    <t>8565827123</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>17DF9A3EF0E72ACED8B7C0E41C0E3E0F</t>
+  </si>
+  <si>
+    <t>AbhishekOrg18586</t>
+  </si>
+  <si>
+    <t>AbhishekFNdrfgu</t>
+  </si>
+  <si>
+    <t>AbhishekLNdrfgu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>AbhishekFNiclkh AbhishekLNiclkh</t>
+  </si>
+  <si>
+    <t>@.</t>
+  </si>
+  <si>
+    <t>abhishektest18586@gmail.com</t>
+  </si>
+  <si>
+    <t>8073525027</t>
+  </si>
+  <si>
+    <t>9A8882267F1E1E84BF685876E1559EF6</t>
+  </si>
+  <si>
+    <t>D5243A78BE692F18279C1ABD485C92E7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -990,9 +1027,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.08984375" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="34.08984375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.54296875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.90625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1005,8 +1042,8 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>177</v>
+      <c r="A2" t="s" s="0">
+        <v>195</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -1020,29 +1057,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="19.26953125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.7265625" customWidth="1"/>
-    <col min="17" max="17" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.6328125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.6328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.453125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.1796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.26953125"/>
+    <col min="6" max="7" customWidth="true" style="4" width="19.26953125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.36328125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="7.36328125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="8.08984375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.26953125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="5.08984375"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="16.26953125"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="16.1796875"/>
+    <col min="16" max="16" customWidth="true" width="35.7265625"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.453125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.6328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
@@ -1103,7 +1140,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1142,19 +1179,19 @@
         <v>77</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -1170,23 +1207,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.54296875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="32.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.36328125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="25.81640625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="17.0"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.7265625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.0"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="9.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1226,10 +1263,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>98</v>
@@ -1295,16 +1332,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.81640625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.7265625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.90625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.81640625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.6328125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.6328125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.81640625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="17.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1399,10 +1436,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1420,16 +1457,16 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>104</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>131</v>
       </c>
     </row>
@@ -1449,10 +1486,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.36328125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.453125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.90625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.90625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1464,7 +1501,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>134</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1487,17 +1524,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.54296875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7265625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.26953125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.1796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.1796875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7265625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.36328125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="22.08984375"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="16.54296875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
@@ -1545,222 +1582,222 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" t="s" s="0">
         <v>163</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" t="s" s="0">
         <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" t="s" s="0">
         <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" t="s" s="0">
         <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" t="s" s="0">
         <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" t="s" s="0">
         <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" t="s" s="0">
         <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" t="s" s="0">
         <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" t="s" s="0">
         <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" t="s" s="0">
         <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" t="s" s="0">
         <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" t="s" s="0">
         <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="0">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G16" t="s">
+      <c r="G16" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G21" t="s">
+      <c r="G21" t="s" s="0">
         <v>51</v>
       </c>
     </row>
@@ -1780,9 +1817,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.90625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.26953125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.6328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1797,13 +1834,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>141</v>
       </c>
     </row>
@@ -1823,17 +1860,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.453125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.453125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.81640625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.90625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.6328125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="15.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="4" width="13.453125"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="4" width="12.54296875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="4" width="14.7265625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="14.36328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1872,19 +1909,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>150</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>151</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>154</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1902,7 +1939,7 @@
       <c r="J2" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>134</v>
       </c>
     </row>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A9DE6A38-513B-4462-9F06-B9924ACDBC1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8A6D8AD2-A654-4B6B-B077-07C3E1431503}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7520" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7520" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="B1:E7"/>
+  <oleSize ref="B1:D7"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="184">
   <si>
     <t>Transport Type</t>
   </si>
@@ -562,68 +562,31 @@
     <t>Awaiting Response</t>
   </si>
   <si>
-    <t>A7B8256617EFB871FF411B68DEDDF04A</t>
-  </si>
-  <si>
-    <t>AbhishekFNiclkh</t>
-  </si>
-  <si>
-    <t>AbhishekLNiclkh</t>
-  </si>
-  <si>
-    <t>AbhishekFNusyhx AbhishekLNusyhx</t>
-  </si>
-  <si>
-    <t>AbhishekOrg86937</t>
-  </si>
-  <si>
-    <t>abhishektest86937@gmail.com</t>
-  </si>
-  <si>
-    <t>8565827123</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>17DF9A3EF0E72ACED8B7C0E41C0E3E0F</t>
-  </si>
-  <si>
-    <t>AbhishekOrg18586</t>
-  </si>
-  <si>
-    <t>AbhishekFNdrfgu</t>
-  </si>
-  <si>
-    <t>AbhishekLNdrfgu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>AbhishekFNiclkh AbhishekLNiclkh</t>
-  </si>
-  <si>
-    <t>@.</t>
-  </si>
-  <si>
-    <t>abhishektest18586@gmail.com</t>
-  </si>
-  <si>
-    <t>8073525027</t>
-  </si>
-  <si>
-    <t>9A8882267F1E1E84BF685876E1559EF6</t>
-  </si>
-  <si>
     <t>D5243A78BE692F18279C1ABD485C92E7</t>
+  </si>
+  <si>
+    <t>AbhishekOrg18585</t>
+  </si>
+  <si>
+    <t>abhishektest18585@gmail.com</t>
+  </si>
+  <si>
+    <t>8073525025</t>
+  </si>
+  <si>
+    <t>AbhishekFNcc</t>
+  </si>
+  <si>
+    <t>AbhishekLNcc</t>
+  </si>
+  <si>
+    <t>AbhishekFNcc AbhishekLNcc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1027,9 +990,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.08984375"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.54296875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.90625"/>
+    <col min="1" max="1" width="34.08984375" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1042,8 +1005,8 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
-        <v>195</v>
+      <c r="A2" t="s">
+        <v>177</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -1057,29 +1020,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.6328125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.6328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.453125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.1796875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.26953125"/>
-    <col min="6" max="7" customWidth="true" style="4" width="19.26953125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.54296875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="9.36328125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.36328125"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="8.08984375"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.26953125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="5.08984375"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="16.26953125"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="16.1796875"/>
-    <col min="16" max="16" customWidth="true" width="35.7265625"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="5.453125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.6328125"/>
+    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19.26953125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.7265625" customWidth="1"/>
+    <col min="17" max="17" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
@@ -1140,7 +1103,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1179,19 +1142,19 @@
         <v>77</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1207,23 +1170,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.54296875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.1796875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.1796875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="25.81640625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="17.0"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.54296875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.7265625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.0"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="9.1796875"/>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1263,10 +1226,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>98</v>
@@ -1332,16 +1295,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="23.81640625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.7265625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.90625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.81640625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.6328125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.6328125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.81640625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.0"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="17.1796875"/>
+    <col min="1" max="1" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1436,10 +1399,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.1796875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.81640625"/>
+    <col min="1" max="1" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1457,16 +1420,16 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>104</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1486,10 +1449,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.36328125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.453125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.90625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.90625"/>
+    <col min="1" max="1" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1501,7 +1464,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>134</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1524,17 +1487,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.54296875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7265625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.26953125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="25.1796875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.1796875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.26953125"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7265625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.36328125"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.08984375"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="16.54296875"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
@@ -1582,222 +1545,222 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>52</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>54</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" t="s">
         <v>57</v>
       </c>
-      <c r="M2" t="s" s="0">
+      <c r="M2" t="s">
         <v>163</v>
       </c>
-      <c r="N2" t="s" s="0">
+      <c r="N2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="H3" t="s">
         <v>53</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="M3" t="s" s="0">
+      <c r="M3" t="s">
         <v>164</v>
       </c>
-      <c r="N3" t="s" s="0">
+      <c r="N3" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="I4" t="s">
         <v>56</v>
       </c>
-      <c r="M4" t="s" s="0">
+      <c r="M4" t="s">
         <v>165</v>
       </c>
-      <c r="N4" t="s" s="0">
+      <c r="N4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="M5" t="s" s="0">
+      <c r="M5" t="s">
         <v>156</v>
       </c>
-      <c r="N5" t="s" s="0">
+      <c r="N5" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" t="s" s="0">
+      <c r="G6" t="s">
         <v>36</v>
       </c>
-      <c r="M6" t="s" s="0">
+      <c r="M6" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="G7" t="s" s="0">
+      <c r="G7" t="s">
         <v>37</v>
       </c>
-      <c r="M7" t="s" s="0">
+      <c r="M7" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G8" t="s" s="0">
+      <c r="G8" t="s">
         <v>38</v>
       </c>
-      <c r="M8" t="s" s="0">
+      <c r="M8" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G9" t="s" s="0">
+      <c r="G9" t="s">
         <v>39</v>
       </c>
-      <c r="M9" t="s" s="0">
+      <c r="M9" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G10" t="s" s="0">
+      <c r="G10" t="s">
         <v>40</v>
       </c>
-      <c r="M10" t="s" s="0">
+      <c r="M10" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G11" t="s" s="0">
+      <c r="G11" t="s">
         <v>41</v>
       </c>
-      <c r="M11" t="s" s="0">
+      <c r="M11" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G12" t="s" s="0">
+      <c r="G12" t="s">
         <v>42</v>
       </c>
-      <c r="M12" t="s" s="0">
+      <c r="M12" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G13" t="s" s="0">
+      <c r="G13" t="s">
         <v>43</v>
       </c>
-      <c r="M13" t="s" s="0">
+      <c r="M13" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G14" t="s" s="0">
+      <c r="G14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G15" t="s" s="0">
+      <c r="G15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G16" t="s" s="0">
+      <c r="G16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G17" t="s" s="0">
+      <c r="G17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G18" t="s" s="0">
+      <c r="G18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G19" t="s" s="0">
+      <c r="G19" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G20" t="s" s="0">
+      <c r="G20" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G21" t="s" s="0">
+      <c r="G21" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1817,9 +1780,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.90625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.26953125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.6328125"/>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1834,13 +1797,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>139</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>140</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1860,17 +1823,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="29.453125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="31.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.453125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.81640625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.90625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.6328125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="15.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="4" width="13.453125"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="4" width="12.54296875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="4" width="14.7265625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.36328125"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1909,19 +1872,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>150</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>151</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>152</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>153</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>154</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1939,7 +1902,7 @@
       <c r="J2" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>134</v>
       </c>
     </row>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8A6D8AD2-A654-4B6B-B077-07C3E1431503}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{262DAA07-0E9D-4C1F-A66F-D7A8693E8DC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7520" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7520" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="B1:D7"/>
+  <oleSize ref="L1:O7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -562,25 +562,25 @@
     <t>Awaiting Response</t>
   </si>
   <si>
-    <t>D5243A78BE692F18279C1ABD485C92E7</t>
-  </si>
-  <si>
-    <t>AbhishekOrg18585</t>
-  </si>
-  <si>
-    <t>abhishektest18585@gmail.com</t>
-  </si>
-  <si>
     <t>8073525025</t>
   </si>
   <si>
-    <t>AbhishekFNcc</t>
-  </si>
-  <si>
-    <t>AbhishekLNcc</t>
-  </si>
-  <si>
-    <t>AbhishekFNcc AbhishekLNcc</t>
+    <t>23B6E9EEB8535BCAC9704D4F4A4C23F7</t>
+  </si>
+  <si>
+    <t>AbhishekOrg18511</t>
+  </si>
+  <si>
+    <t>AbhishekFNcd AbhishekLNcd</t>
+  </si>
+  <si>
+    <t>AbhishekFNcd</t>
+  </si>
+  <si>
+    <t>AbhishekLNcd</t>
+  </si>
+  <si>
+    <t>abhishektest18511@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1148,13 +1148,13 @@
         <v>182</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1226,10 +1226,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>98</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{262DAA07-0E9D-4C1F-A66F-D7A8693E8DC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{672F06EC-2D19-46F9-B85B-654F71C3E433}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7520" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -562,9 +562,6 @@
     <t>Awaiting Response</t>
   </si>
   <si>
-    <t>8073525025</t>
-  </si>
-  <si>
     <t>23B6E9EEB8535BCAC9704D4F4A4C23F7</t>
   </si>
   <si>
@@ -581,6 +578,9 @@
   </si>
   <si>
     <t>abhishektest18511@gmail.com</t>
+  </si>
+  <si>
+    <t>8073525011</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1142,19 +1142,19 @@
         <v>77</v>
       </c>
       <c r="N2" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>183</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1226,10 +1226,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>180</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>98</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{672F06EC-2D19-46F9-B85B-654F71C3E433}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A277252A-F219-43BC-B9E7-FDA9871A40A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7520" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7520" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="L1:O7"/>
+  <oleSize ref="A1:C7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -565,9 +565,6 @@
     <t>23B6E9EEB8535BCAC9704D4F4A4C23F7</t>
   </si>
   <si>
-    <t>AbhishekOrg18511</t>
-  </si>
-  <si>
     <t>AbhishekFNcd AbhishekLNcd</t>
   </si>
   <si>
@@ -577,10 +574,13 @@
     <t>AbhishekLNcd</t>
   </si>
   <si>
-    <t>abhishektest18511@gmail.com</t>
-  </si>
-  <si>
-    <t>8073525011</t>
+    <t>AbhishekOrg18512</t>
+  </si>
+  <si>
+    <t>abhishektest18512@gmail.com</t>
+  </si>
+  <si>
+    <t>8073525012</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1142,10 +1142,10 @@
         <v>77</v>
       </c>
       <c r="N2" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>182</v>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1226,10 +1226,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>178</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>179</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>98</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A277252A-F219-43BC-B9E7-FDA9871A40A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1AA16F6E-86ED-4A74-B3F8-F10318B32141}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7520" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7520" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="A1:C7"/>
+  <oleSize ref="R1:W7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -574,13 +574,13 @@
     <t>AbhishekLNcd</t>
   </si>
   <si>
-    <t>AbhishekOrg18512</t>
-  </si>
-  <si>
-    <t>abhishektest18512@gmail.com</t>
-  </si>
-  <si>
-    <t>8073525012</t>
+    <t>AbhishekOrg18513</t>
+  </si>
+  <si>
+    <t>8073525013</t>
+  </si>
+  <si>
+    <t>abhishektest18513@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1148,13 +1148,13 @@
         <v>180</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1170,7 +1170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1AA16F6E-86ED-4A74-B3F8-F10318B32141}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{356068E8-311D-438F-8480-76BC24FFD2DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7520" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14450" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="R1:W7"/>
+  <oleSize ref="J1:V7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -574,13 +574,13 @@
     <t>AbhishekLNcd</t>
   </si>
   <si>
-    <t>AbhishekOrg18513</t>
-  </si>
-  <si>
-    <t>8073525013</t>
-  </si>
-  <si>
-    <t>abhishektest18513@gmail.com</t>
+    <t>8073525014</t>
+  </si>
+  <si>
+    <t>abhishektest18514@gmail.com</t>
+  </si>
+  <si>
+    <t>AbhishekOrg18514</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1148,13 +1148,13 @@
         <v>180</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>178</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{356068E8-311D-438F-8480-76BC24FFD2DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A61A7345-8A7D-4E66-82CA-11D6772CB75C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14450" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7520" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="J1:V7"/>
+  <oleSize ref="A1:D7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -574,13 +574,13 @@
     <t>AbhishekLNcd</t>
   </si>
   <si>
-    <t>8073525014</t>
-  </si>
-  <si>
-    <t>abhishektest18514@gmail.com</t>
-  </si>
-  <si>
-    <t>AbhishekOrg18514</t>
+    <t>AbhishekOrg18515</t>
+  </si>
+  <si>
+    <t>abhishektest18515@gmail.com</t>
+  </si>
+  <si>
+    <t>8073525015</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1154,7 +1154,7 @@
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>178</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A61A7345-8A7D-4E66-82CA-11D6772CB75C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C0678726-D490-4EE7-8196-B9A71494EED0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7520" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7520" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="A1:D7"/>
+  <oleSize ref="A1:C7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -574,13 +574,13 @@
     <t>AbhishekLNcd</t>
   </si>
   <si>
-    <t>AbhishekOrg18515</t>
-  </si>
-  <si>
-    <t>abhishektest18515@gmail.com</t>
-  </si>
-  <si>
-    <t>8073525015</t>
+    <t>AbhishekOrg18516</t>
+  </si>
+  <si>
+    <t>abhishektest18516@gmail.com</t>
+  </si>
+  <si>
+    <t>8073525016</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C0678726-D490-4EE7-8196-B9A71494EED0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9B06C513-3B97-44AF-8A4E-73D2BD61E44C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7520" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7520" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="A1:C7"/>
+  <oleSize ref="P1:S7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -574,13 +574,13 @@
     <t>AbhishekLNcd</t>
   </si>
   <si>
-    <t>AbhishekOrg18516</t>
-  </si>
-  <si>
-    <t>abhishektest18516@gmail.com</t>
-  </si>
-  <si>
-    <t>8073525016</t>
+    <t>AbhishekOrg18517</t>
+  </si>
+  <si>
+    <t>8073525017</t>
+  </si>
+  <si>
+    <t>abhishektest18517@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1148,13 +1148,13 @@
         <v>180</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9B06C513-3B97-44AF-8A4E-73D2BD61E44C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3CCAF703-C58B-416D-86EB-AB69CB7C38C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7520" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7520" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="P1:S7"/>
+  <oleSize ref="A1:C7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -574,13 +574,13 @@
     <t>AbhishekLNcd</t>
   </si>
   <si>
-    <t>AbhishekOrg18517</t>
-  </si>
-  <si>
-    <t>8073525017</t>
-  </si>
-  <si>
-    <t>abhishektest18517@gmail.com</t>
+    <t>8073525018</t>
+  </si>
+  <si>
+    <t>abhishektest18518@gmail.com</t>
+  </si>
+  <si>
+    <t>AbhishekOrg18518</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1148,13 +1148,13 @@
         <v>180</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>178</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3CCAF703-C58B-416D-86EB-AB69CB7C38C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{DF6035BD-04DA-41DC-BA6D-A7FB9702716F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7520" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7520" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="A1:C7"/>
+  <oleSize ref="A1:D7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -574,13 +574,13 @@
     <t>AbhishekLNcd</t>
   </si>
   <si>
-    <t>8073525018</t>
-  </si>
-  <si>
-    <t>abhishektest18518@gmail.com</t>
-  </si>
-  <si>
-    <t>AbhishekOrg18518</t>
+    <t>AbhishekOrg18519</t>
+  </si>
+  <si>
+    <t>abhishektest18519@gmail.com</t>
+  </si>
+  <si>
+    <t>8073525019</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1154,7 +1154,7 @@
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>178</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{DF6035BD-04DA-41DC-BA6D-A7FB9702716F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{45614EE8-F816-4AE4-98BE-4C2BB9A72DCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7520" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="A1:D7"/>
+  <oleSize ref="Q1:W7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -574,13 +574,13 @@
     <t>AbhishekLNcd</t>
   </si>
   <si>
-    <t>AbhishekOrg18519</t>
-  </si>
-  <si>
-    <t>abhishektest18519@gmail.com</t>
-  </si>
-  <si>
-    <t>8073525019</t>
+    <t>AbhishekOrg18520</t>
+  </si>
+  <si>
+    <t>abhishektest18520@gmail.com</t>
+  </si>
+  <si>
+    <t>8073525020</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1171,7 +1171,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{45614EE8-F816-4AE4-98BE-4C2BB9A72DCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0AEF340B-544A-486D-BEB4-ACAEDA6B0E15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7520" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11000" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="Q1:W7"/>
+  <oleSize ref="A1:E7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -574,13 +574,13 @@
     <t>AbhishekLNcd</t>
   </si>
   <si>
-    <t>AbhishekOrg18520</t>
-  </si>
-  <si>
-    <t>abhishektest18520@gmail.com</t>
-  </si>
-  <si>
-    <t>8073525020</t>
+    <t>8073525021</t>
+  </si>
+  <si>
+    <t>abhishektest18521@gmail.com</t>
+  </si>
+  <si>
+    <t>AbhishekOrg18521</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1154,7 +1154,7 @@
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1170,7 +1170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>178</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0AEF340B-544A-486D-BEB4-ACAEDA6B0E15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{92DD92E3-20B0-4FCB-918B-4C7B5E4DDA93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11000" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -574,13 +574,13 @@
     <t>AbhishekLNcd</t>
   </si>
   <si>
-    <t>8073525021</t>
-  </si>
-  <si>
-    <t>abhishektest18521@gmail.com</t>
-  </si>
-  <si>
-    <t>AbhishekOrg18521</t>
+    <t>AbhishekOrg18522</t>
+  </si>
+  <si>
+    <t>abhishektest18522@gmail.com</t>
+  </si>
+  <si>
+    <t>8073525022</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1154,7 +1154,7 @@
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>178</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{92DD92E3-20B0-4FCB-918B-4C7B5E4DDA93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C3F5F55D-DAEB-4136-A965-07E94DF9A10F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -562,9 +562,6 @@
     <t>Awaiting Response</t>
   </si>
   <si>
-    <t>23B6E9EEB8535BCAC9704D4F4A4C23F7</t>
-  </si>
-  <si>
     <t>AbhishekFNcd AbhishekLNcd</t>
   </si>
   <si>
@@ -574,13 +571,16 @@
     <t>AbhishekLNcd</t>
   </si>
   <si>
-    <t>AbhishekOrg18522</t>
-  </si>
-  <si>
-    <t>abhishektest18522@gmail.com</t>
-  </si>
-  <si>
-    <t>8073525022</t>
+    <t>70BF89ED1F0134A1A0C51204F14ADF57</t>
+  </si>
+  <si>
+    <t>AbhishekOrg18523</t>
+  </si>
+  <si>
+    <t>abhishektest18523@gmail.com</t>
+  </si>
+  <si>
+    <t>8073525023</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1142,10 +1142,10 @@
         <v>77</v>
       </c>
       <c r="N2" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>180</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>182</v>
@@ -1229,7 +1229,7 @@
         <v>181</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>98</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C3F5F55D-DAEB-4136-A965-07E94DF9A10F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3D1A8B08-5487-422F-8C57-DE9F27D3E206}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="185">
   <si>
     <t>Transport Type</t>
   </si>
@@ -577,10 +577,13 @@
     <t>AbhishekOrg18523</t>
   </si>
   <si>
-    <t>abhishektest18523@gmail.com</t>
-  </si>
-  <si>
-    <t>8073525023</t>
+    <t>AbhishekOrg18524</t>
+  </si>
+  <si>
+    <t>abhishektest18524@gmail.com</t>
+  </si>
+  <si>
+    <t>8073525024</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1024,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1103,7 +1106,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1148,13 +1151,13 @@
         <v>179</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3D1A8B08-5487-422F-8C57-DE9F27D3E206}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AC57D4E4-7371-4DA6-BA3D-E2C6136C73FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="184">
   <si>
     <t>Transport Type</t>
   </si>
@@ -574,16 +574,13 @@
     <t>70BF89ED1F0134A1A0C51204F14ADF57</t>
   </si>
   <si>
-    <t>AbhishekOrg18523</t>
-  </si>
-  <si>
-    <t>AbhishekOrg18524</t>
-  </si>
-  <si>
-    <t>abhishektest18524@gmail.com</t>
-  </si>
-  <si>
-    <t>8073525024</t>
+    <t>AbhishekOrg18525</t>
+  </si>
+  <si>
+    <t>abhishektest18525@gmail.com</t>
+  </si>
+  <si>
+    <t>8073525025</t>
   </si>
 </sst>
 </file>
@@ -1023,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1106,7 +1103,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1151,13 +1148,13 @@
         <v>179</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1173,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AC57D4E4-7371-4DA6-BA3D-E2C6136C73FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{FB6D8E53-F7A0-4A41-8755-89CB896DC836}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -574,13 +574,13 @@
     <t>70BF89ED1F0134A1A0C51204F14ADF57</t>
   </si>
   <si>
-    <t>AbhishekOrg18525</t>
-  </si>
-  <si>
-    <t>abhishektest18525@gmail.com</t>
-  </si>
-  <si>
-    <t>8073525025</t>
+    <t>AbhishekOrg18526</t>
+  </si>
+  <si>
+    <t>abhishektest18526@gmail.com</t>
+  </si>
+  <si>
+    <t>8073525026</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
@@ -1171,7 +1171,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{FB6D8E53-F7A0-4A41-8755-89CB896DC836}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4F0B7A07-C543-441C-99FE-0BF97ED6A213}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="A1:E7"/>
+  <oleSize ref="M1:R7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -574,13 +574,13 @@
     <t>70BF89ED1F0134A1A0C51204F14ADF57</t>
   </si>
   <si>
-    <t>AbhishekOrg18526</t>
-  </si>
-  <si>
-    <t>abhishektest18526@gmail.com</t>
-  </si>
-  <si>
-    <t>8073525026</t>
+    <t>AbhishekOrg18527</t>
+  </si>
+  <si>
+    <t>abhishektest18527@gmail.com</t>
+  </si>
+  <si>
+    <t>8073525027</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4F0B7A07-C543-441C-99FE-0BF97ED6A213}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{00F47BEC-1F93-496B-8731-9E5848763627}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="M1:R7"/>
+  <oleSize ref="A1:E7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -574,13 +574,13 @@
     <t>70BF89ED1F0134A1A0C51204F14ADF57</t>
   </si>
   <si>
-    <t>AbhishekOrg18527</t>
-  </si>
-  <si>
-    <t>abhishektest18527@gmail.com</t>
-  </si>
-  <si>
-    <t>8073525027</t>
+    <t>AbhishekOrg18528</t>
+  </si>
+  <si>
+    <t>abhishektest18528@gmail.com</t>
+  </si>
+  <si>
+    <t>8073525028</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{00F47BEC-1F93-496B-8731-9E5848763627}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{75E244DC-EB86-4172-84A2-39B356E214A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="A1:E7"/>
+  <oleSize ref="O1:T7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -574,13 +574,13 @@
     <t>70BF89ED1F0134A1A0C51204F14ADF57</t>
   </si>
   <si>
-    <t>AbhishekOrg18528</t>
-  </si>
-  <si>
-    <t>abhishektest18528@gmail.com</t>
-  </si>
-  <si>
-    <t>8073525028</t>
+    <t>AbhishekOrg18529</t>
+  </si>
+  <si>
+    <t>8073525029</t>
+  </si>
+  <si>
+    <t>abhishektest18529@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1148,13 +1148,13 @@
         <v>179</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{75E244DC-EB86-4172-84A2-39B356E214A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7FAB2977-968F-40C1-91E3-49C43EC93EC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="O1:T7"/>
+  <oleSize ref="A1:E7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -574,13 +574,13 @@
     <t>70BF89ED1F0134A1A0C51204F14ADF57</t>
   </si>
   <si>
-    <t>AbhishekOrg18529</t>
-  </si>
-  <si>
-    <t>8073525029</t>
-  </si>
-  <si>
-    <t>abhishektest18529@gmail.com</t>
+    <t>8073525030</t>
+  </si>
+  <si>
+    <t>abhishektest18530@gmail.com</t>
+  </si>
+  <si>
+    <t>AbhishekOrg18530</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1148,13 +1148,13 @@
         <v>179</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>177</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7FAB2977-968F-40C1-91E3-49C43EC93EC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{561C54B4-2B5D-41F1-977B-E57006C89E25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -574,13 +574,13 @@
     <t>70BF89ED1F0134A1A0C51204F14ADF57</t>
   </si>
   <si>
-    <t>8073525030</t>
-  </si>
-  <si>
-    <t>abhishektest18530@gmail.com</t>
-  </si>
-  <si>
-    <t>AbhishekOrg18530</t>
+    <t>AbhishekOrg18531</t>
+  </si>
+  <si>
+    <t>abhishektest18531@gmail.com</t>
+  </si>
+  <si>
+    <t>8073525031</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1154,7 +1154,7 @@
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>177</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{561C54B4-2B5D-41F1-977B-E57006C89E25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{22135C17-3EA1-4008-BFD5-476C40A58B34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -574,13 +574,13 @@
     <t>70BF89ED1F0134A1A0C51204F14ADF57</t>
   </si>
   <si>
-    <t>AbhishekOrg18531</t>
-  </si>
-  <si>
-    <t>abhishektest18531@gmail.com</t>
-  </si>
-  <si>
-    <t>8073525031</t>
+    <t>AbhishekOrg18532</t>
+  </si>
+  <si>
+    <t>abhishektest18532@gmail.com</t>
+  </si>
+  <si>
+    <t>8073525032</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{22135C17-3EA1-4008-BFD5-476C40A58B34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BB7254A6-88E0-49F5-8A24-7A12A602E256}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="A1:E7"/>
+  <oleSize ref="O1:T7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -574,13 +574,13 @@
     <t>70BF89ED1F0134A1A0C51204F14ADF57</t>
   </si>
   <si>
-    <t>AbhishekOrg18532</t>
-  </si>
-  <si>
-    <t>abhishektest18532@gmail.com</t>
-  </si>
-  <si>
-    <t>8073525032</t>
+    <t>AbhishekOrg18533</t>
+  </si>
+  <si>
+    <t>8073525033</t>
+  </si>
+  <si>
+    <t>abhishektest18533@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1148,13 +1148,13 @@
         <v>179</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BB7254A6-88E0-49F5-8A24-7A12A602E256}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F1C9F8B7-7CFA-4528-B5BF-12A1F8FA14B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="O1:T7"/>
+  <oleSize ref="A1:E7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -574,13 +574,13 @@
     <t>70BF89ED1F0134A1A0C51204F14ADF57</t>
   </si>
   <si>
-    <t>AbhishekOrg18533</t>
-  </si>
-  <si>
-    <t>8073525033</t>
-  </si>
-  <si>
-    <t>abhishektest18533@gmail.com</t>
+    <t>8073525034</t>
+  </si>
+  <si>
+    <t>abhishektest18534@gmail.com</t>
+  </si>
+  <si>
+    <t>AbhishekOrg18534</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1148,13 +1148,13 @@
         <v>179</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>177</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F1C9F8B7-7CFA-4528-B5BF-12A1F8FA14B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5E961A98-C342-495D-80BF-50DD8933596A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -574,13 +574,13 @@
     <t>70BF89ED1F0134A1A0C51204F14ADF57</t>
   </si>
   <si>
-    <t>8073525034</t>
-  </si>
-  <si>
-    <t>abhishektest18534@gmail.com</t>
-  </si>
-  <si>
-    <t>AbhishekOrg18534</t>
+    <t>AbhishekOrg18535</t>
+  </si>
+  <si>
+    <t>abhishektest18535@gmail.com</t>
+  </si>
+  <si>
+    <t>8073525035</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1154,7 +1154,7 @@
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>177</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5E961A98-C342-495D-80BF-50DD8933596A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3AB8DC3A-539C-47EC-845D-A6237F1744EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -574,13 +574,13 @@
     <t>70BF89ED1F0134A1A0C51204F14ADF57</t>
   </si>
   <si>
-    <t>AbhishekOrg18535</t>
-  </si>
-  <si>
-    <t>abhishektest18535@gmail.com</t>
-  </si>
-  <si>
-    <t>8073525035</t>
+    <t>AbhishekOrg18536</t>
+  </si>
+  <si>
+    <t>abhishektest18536@gmail.com</t>
+  </si>
+  <si>
+    <t>8073525036</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3AB8DC3A-539C-47EC-845D-A6237F1744EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5D340A7E-70C5-4278-9C59-DB22FE4CB07E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="A1:E7"/>
+  <oleSize ref="O1:T7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -574,13 +574,13 @@
     <t>70BF89ED1F0134A1A0C51204F14ADF57</t>
   </si>
   <si>
-    <t>AbhishekOrg18536</t>
-  </si>
-  <si>
-    <t>abhishektest18536@gmail.com</t>
-  </si>
-  <si>
-    <t>8073525036</t>
+    <t>AbhishekOrg18537</t>
+  </si>
+  <si>
+    <t>8073525037</t>
+  </si>
+  <si>
+    <t>abhishektest18537@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1148,13 +1148,13 @@
         <v>179</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5D340A7E-70C5-4278-9C59-DB22FE4CB07E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{35DD7C9F-ABA4-4E6F-9808-A9CCBC466E72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="O1:T7"/>
+  <oleSize ref="A1:E7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -574,13 +574,13 @@
     <t>70BF89ED1F0134A1A0C51204F14ADF57</t>
   </si>
   <si>
-    <t>AbhishekOrg18537</t>
-  </si>
-  <si>
-    <t>8073525037</t>
-  </si>
-  <si>
-    <t>abhishektest18537@gmail.com</t>
+    <t>8073525038</t>
+  </si>
+  <si>
+    <t>abhishektest18538@gmail.com</t>
+  </si>
+  <si>
+    <t>AbhishekOrg18538</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1148,13 +1148,13 @@
         <v>179</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>177</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{35DD7C9F-ABA4-4E6F-9808-A9CCBC466E72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{306AE68E-CB65-4A06-BB5D-16B98042759F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -574,13 +574,13 @@
     <t>70BF89ED1F0134A1A0C51204F14ADF57</t>
   </si>
   <si>
-    <t>8073525038</t>
-  </si>
-  <si>
-    <t>abhishektest18538@gmail.com</t>
-  </si>
-  <si>
-    <t>AbhishekOrg18538</t>
+    <t>AbhishekOrg18539</t>
+  </si>
+  <si>
+    <t>abhishektest18539@gmail.com</t>
+  </si>
+  <si>
+    <t>8073525039</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1154,7 +1154,7 @@
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>177</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{306AE68E-CB65-4A06-BB5D-16B98042759F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{39498780-5A49-4D07-AF55-F7F10585C417}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="183">
   <si>
     <t>Transport Type</t>
   </si>
@@ -436,9 +436,6 @@
     <t>Abhishek Birana</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>Event Name</t>
   </si>
   <si>
@@ -571,16 +568,16 @@
     <t>AbhishekLNcd</t>
   </si>
   <si>
-    <t>70BF89ED1F0134A1A0C51204F14ADF57</t>
-  </si>
-  <si>
-    <t>AbhishekOrg18539</t>
-  </si>
-  <si>
-    <t>abhishektest18539@gmail.com</t>
-  </si>
-  <si>
-    <t>8073525039</t>
+    <t>97FFE36C637BA93C7400C03C883F143C</t>
+  </si>
+  <si>
+    <t>AbhishekOrg18540</t>
+  </si>
+  <si>
+    <t>abhishektest18540@gmail.com</t>
+  </si>
+  <si>
+    <t>8073525040</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1003,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -1020,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1103,7 +1100,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1142,19 +1139,19 @@
         <v>77</v>
       </c>
       <c r="N2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>179</v>
-      </c>
       <c r="P2" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1170,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1226,10 +1223,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>98</v>
@@ -1444,7 +1441,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1468,7 +1465,7 @@
         <v>134</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1535,10 +1532,10 @@
         <v>28</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -1573,10 +1570,10 @@
         <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -1605,10 +1602,10 @@
         <v>55</v>
       </c>
       <c r="M3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -1631,10 +1628,10 @@
         <v>56</v>
       </c>
       <c r="M4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -1648,10 +1645,10 @@
         <v>35</v>
       </c>
       <c r="M5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -1662,7 +1659,7 @@
         <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -1673,7 +1670,7 @@
         <v>37</v>
       </c>
       <c r="M7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -1681,7 +1678,7 @@
         <v>38</v>
       </c>
       <c r="M8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -1689,7 +1686,7 @@
         <v>39</v>
       </c>
       <c r="M9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -1697,7 +1694,7 @@
         <v>40</v>
       </c>
       <c r="M10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -1705,7 +1702,7 @@
         <v>41</v>
       </c>
       <c r="M11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -1713,7 +1710,7 @@
         <v>42</v>
       </c>
       <c r="M12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -1721,7 +1718,7 @@
         <v>43</v>
       </c>
       <c r="M13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -1787,24 +1784,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
         <v>139</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1838,69 +1835,69 @@
   <sheetData>
     <row r="1" spans="1:11" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>145</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" t="s">
         <v>150</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>151</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>152</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>153</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="I2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="K2" t="s">
         <v>134</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{39498780-5A49-4D07-AF55-F7F10585C417}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{51D51CD4-E6B2-4923-A8AA-4DC7941F57F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="A1:E7"/>
+  <oleSize ref="O1:T7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -571,13 +571,13 @@
     <t>97FFE36C637BA93C7400C03C883F143C</t>
   </si>
   <si>
-    <t>AbhishekOrg18540</t>
-  </si>
-  <si>
-    <t>abhishektest18540@gmail.com</t>
-  </si>
-  <si>
-    <t>8073525040</t>
+    <t>AbhishekOrg18541</t>
+  </si>
+  <si>
+    <t>8073525041</t>
+  </si>
+  <si>
+    <t>abhishektest18541@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1017,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1145,13 +1145,13 @@
         <v>178</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1167,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{51D51CD4-E6B2-4923-A8AA-4DC7941F57F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C378CC86-0227-4F2B-B699-59ACF0B00B5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="O1:T7"/>
+  <oleSize ref="A1:D7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="187">
   <si>
     <t>Transport Type</t>
   </si>
@@ -445,12 +445,6 @@
     <t>ShareWith</t>
   </si>
   <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Demo purpose</t>
-  </si>
-  <si>
     <t>Sagar Mehra</t>
   </si>
   <si>
@@ -568,9 +562,6 @@
     <t>AbhishekLNcd</t>
   </si>
   <si>
-    <t>97FFE36C637BA93C7400C03C883F143C</t>
-  </si>
-  <si>
     <t>AbhishekOrg18541</t>
   </si>
   <si>
@@ -578,6 +569,27 @@
   </si>
   <si>
     <t>abhishektest18541@gmail.com</t>
+  </si>
+  <si>
+    <t>AbhishekEvent</t>
+  </si>
+  <si>
+    <t>This is description for Event</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>58075668E76A14CFACB39B079B997CAD</t>
   </si>
 </sst>
 </file>
@@ -678,7 +690,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -698,6 +710,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1003,7 +1017,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -1017,7 +1031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1100,7 +1114,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1139,19 +1153,19 @@
         <v>77</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1167,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1223,10 +1237,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>98</v>
@@ -1465,7 +1479,7 @@
         <v>134</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1532,10 +1546,10 @@
         <v>28</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -1570,10 +1584,10 @@
         <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -1602,10 +1616,10 @@
         <v>55</v>
       </c>
       <c r="M3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -1628,10 +1642,10 @@
         <v>56</v>
       </c>
       <c r="M4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -1645,10 +1659,10 @@
         <v>35</v>
       </c>
       <c r="M5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -1659,7 +1673,7 @@
         <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -1670,7 +1684,7 @@
         <v>37</v>
       </c>
       <c r="M7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -1678,7 +1692,7 @@
         <v>38</v>
       </c>
       <c r="M8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -1686,7 +1700,7 @@
         <v>39</v>
       </c>
       <c r="M9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -1694,7 +1708,7 @@
         <v>40</v>
       </c>
       <c r="M10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -1702,7 +1716,7 @@
         <v>41</v>
       </c>
       <c r="M11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -1710,7 +1724,7 @@
         <v>42</v>
       </c>
       <c r="M12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -1718,7 +1732,7 @@
         <v>43</v>
       </c>
       <c r="M13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -1769,20 +1783,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E451BFA-34AE-4876-8278-3E87E360FB6D}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="23.90625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>135</v>
       </c>
@@ -1790,19 +1805,51 @@
         <v>136</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="14" t="str">
+        <f>TEXT(C3,"dd-mm-yyyy")</f>
+        <v>20-03-2024</v>
+      </c>
+      <c r="D2" s="14" t="str">
+        <f>TEXT(D3,"dd-mm-yyyy")</f>
+        <v>20-03-2024</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" t="s">
         <v>138</v>
       </c>
-      <c r="B2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" t="s">
-        <v>140</v>
-      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C3" s="19">
+        <v>45371</v>
+      </c>
+      <c r="D3" s="19">
+        <v>45371</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1814,7 +1861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DFCA73-FD35-4C7F-A2BC-E7D556D3E02B}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1835,69 +1882,69 @@
   <sheetData>
     <row r="1" spans="1:11" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="F1" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>143</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" t="s">
         <v>149</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>150</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>151</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K2" t="s">
         <v>134</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C378CC86-0227-4F2B-B699-59ACF0B00B5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E8F2071B-E406-445A-9919-23C8F4EA6588}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="A1:D7"/>
+  <oleSize ref="B1:E7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -562,15 +562,6 @@
     <t>AbhishekLNcd</t>
   </si>
   <si>
-    <t>AbhishekOrg18541</t>
-  </si>
-  <si>
-    <t>8073525041</t>
-  </si>
-  <si>
-    <t>abhishektest18541@gmail.com</t>
-  </si>
-  <si>
     <t>AbhishekEvent</t>
   </si>
   <si>
@@ -590,6 +581,15 @@
   </si>
   <si>
     <t>58075668E76A14CFACB39B079B997CAD</t>
+  </si>
+  <si>
+    <t>AbhishekOrg18542</t>
+  </si>
+  <si>
+    <t>abhishektest18542@gmail.com</t>
+  </si>
+  <si>
+    <t>8073525042</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -1032,7 +1032,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1159,13 +1159,13 @@
         <v>176</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1181,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>174</v>
@@ -1805,16 +1805,16 @@
         <v>136</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>137</v>
@@ -1822,10 +1822,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C2" s="14" t="str">
         <f>TEXT(C3,"dd-mm-yyyy")</f>
@@ -1861,7 +1861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DFCA73-FD35-4C7F-A2BC-E7D556D3E02B}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E8F2071B-E406-445A-9919-23C8F4EA6588}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CFB4EA57-B3F4-47B8-B636-CA9FAF779E50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="B1:E7"/>
+  <oleSize ref="O1:T7"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="189">
   <si>
     <t>Transport Type</t>
   </si>
@@ -583,19 +583,26 @@
     <t>58075668E76A14CFACB39B079B997CAD</t>
   </si>
   <si>
-    <t>AbhishekOrg18542</t>
-  </si>
-  <si>
-    <t>abhishektest18542@gmail.com</t>
-  </si>
-  <si>
-    <t>8073525042</t>
+    <t>AbhishekOrg18543</t>
+  </si>
+  <si>
+    <t>8073525043</t>
+  </si>
+  <si>
+    <t>abhishektest18543@gmail.com</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>C76B491944386E38A9C12E8299C32EA6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1001,9 +1008,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.08984375" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="34.08984375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.54296875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.90625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1016,8 +1023,8 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>183</v>
+      <c r="A2" t="s" s="0">
+        <v>188</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -1031,29 +1038,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="19.26953125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.7265625" customWidth="1"/>
-    <col min="17" max="17" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.6328125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.6328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.453125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.1796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.26953125"/>
+    <col min="6" max="7" customWidth="true" style="4" width="19.26953125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.36328125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="7.36328125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="8.08984375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.26953125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="5.08984375"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="16.26953125"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="16.1796875"/>
+    <col min="16" max="16" customWidth="true" width="35.7265625"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.453125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.6328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
@@ -1159,13 +1166,13 @@
         <v>176</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -1181,23 +1188,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.54296875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="32.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.36328125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="25.81640625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="17.0"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.7265625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.0"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="9.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1306,16 +1313,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.81640625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.7265625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.90625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.81640625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.6328125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.6328125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.81640625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="17.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1410,10 +1417,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1431,16 +1438,16 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>104</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>131</v>
       </c>
     </row>
@@ -1460,10 +1467,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.36328125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.453125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.90625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.90625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1475,7 +1482,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>134</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1498,17 +1505,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.54296875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7265625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.26953125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.1796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.1796875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7265625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.36328125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="22.08984375"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="16.54296875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
@@ -1556,222 +1563,222 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" t="s" s="0">
         <v>161</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" t="s" s="0">
         <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" t="s" s="0">
         <v>162</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" t="s" s="0">
         <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" t="s" s="0">
         <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" t="s" s="0">
         <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" t="s" s="0">
         <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" t="s" s="0">
         <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" t="s" s="0">
         <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" t="s" s="0">
         <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" t="s" s="0">
         <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" t="s" s="0">
         <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" t="s" s="0">
         <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="0">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G16" t="s">
+      <c r="G16" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G21" t="s">
+      <c r="G21" t="s" s="0">
         <v>51</v>
       </c>
     </row>
@@ -1791,10 +1798,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="23.90625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.1796875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.90625"/>
+    <col min="3" max="6" customWidth="true" style="4" width="23.90625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.36328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -1821,10 +1828,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>178</v>
       </c>
       <c r="C2" s="14" t="str">
@@ -1837,7 +1844,7 @@
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>138</v>
       </c>
     </row>
@@ -1867,17 +1874,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.453125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.453125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.81640625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.90625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.6328125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="15.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="4" width="13.453125"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="4" width="12.54296875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="4" width="14.7265625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="14.36328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1916,19 +1923,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>150</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>151</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1946,7 +1953,7 @@
       <c r="J2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>134</v>
       </c>
     </row>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CFB4EA57-B3F4-47B8-B636-CA9FAF779E50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{37D342D6-A2AD-4D7F-BE68-D410C7B11180}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="O1:T7"/>
+  <oleSize ref="E1:I7"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="187">
   <si>
     <t>Transport Type</t>
   </si>
@@ -580,29 +580,22 @@
     <t>End Time</t>
   </si>
   <si>
-    <t>58075668E76A14CFACB39B079B997CAD</t>
-  </si>
-  <si>
-    <t>AbhishekOrg18543</t>
-  </si>
-  <si>
-    <t>8073525043</t>
-  </si>
-  <si>
-    <t>abhishektest18543@gmail.com</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>C76B491944386E38A9C12E8299C32EA6</t>
+    <t>D9A922328B87D15BBC5F14E4300C664E</t>
+  </si>
+  <si>
+    <t>abhishektest18544@gmail.com</t>
+  </si>
+  <si>
+    <t>8073525044</t>
+  </si>
+  <si>
+    <t>AbhishekOrg18544</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1008,9 +1001,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.08984375"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.54296875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.90625"/>
+    <col min="1" max="1" width="34.08984375" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1023,8 +1016,8 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
-        <v>188</v>
+      <c r="A2" t="s">
+        <v>183</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -1038,29 +1031,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.6328125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.6328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.453125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.1796875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.26953125"/>
-    <col min="6" max="7" customWidth="true" style="4" width="19.26953125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.54296875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="9.36328125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.36328125"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="8.08984375"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.26953125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="5.08984375"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="16.26953125"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="16.1796875"/>
-    <col min="16" max="16" customWidth="true" width="35.7265625"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="5.453125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.6328125"/>
+    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19.26953125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.7265625" customWidth="1"/>
+    <col min="17" max="17" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
@@ -1121,7 +1114,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1166,7 +1159,7 @@
         <v>176</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>78</v>
@@ -1188,23 +1181,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.54296875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.1796875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.1796875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="25.81640625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="17.0"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.54296875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.7265625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.0"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="9.1796875"/>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1244,7 +1237,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>174</v>
@@ -1313,16 +1306,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="23.81640625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.7265625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.90625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.81640625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.6328125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.6328125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.81640625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.0"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="17.1796875"/>
+    <col min="1" max="1" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1417,10 +1410,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.1796875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.81640625"/>
+    <col min="1" max="1" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1438,16 +1431,16 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>104</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1467,10 +1460,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.36328125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.453125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.90625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.90625"/>
+    <col min="1" max="1" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1482,7 +1475,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>134</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1505,17 +1498,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.54296875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7265625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.26953125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="25.1796875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.1796875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.26953125"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7265625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.36328125"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.08984375"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="16.54296875"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
@@ -1563,222 +1556,222 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>52</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>54</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" t="s">
         <v>57</v>
       </c>
-      <c r="M2" t="s" s="0">
+      <c r="M2" t="s">
         <v>160</v>
       </c>
-      <c r="N2" t="s" s="0">
+      <c r="N2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="H3" t="s">
         <v>53</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="M3" t="s" s="0">
+      <c r="M3" t="s">
         <v>161</v>
       </c>
-      <c r="N3" t="s" s="0">
+      <c r="N3" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="I4" t="s">
         <v>56</v>
       </c>
-      <c r="M4" t="s" s="0">
+      <c r="M4" t="s">
         <v>162</v>
       </c>
-      <c r="N4" t="s" s="0">
+      <c r="N4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="M5" t="s" s="0">
+      <c r="M5" t="s">
         <v>153</v>
       </c>
-      <c r="N5" t="s" s="0">
+      <c r="N5" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" t="s" s="0">
+      <c r="G6" t="s">
         <v>36</v>
       </c>
-      <c r="M6" t="s" s="0">
+      <c r="M6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="G7" t="s" s="0">
+      <c r="G7" t="s">
         <v>37</v>
       </c>
-      <c r="M7" t="s" s="0">
+      <c r="M7" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G8" t="s" s="0">
+      <c r="G8" t="s">
         <v>38</v>
       </c>
-      <c r="M8" t="s" s="0">
+      <c r="M8" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G9" t="s" s="0">
+      <c r="G9" t="s">
         <v>39</v>
       </c>
-      <c r="M9" t="s" s="0">
+      <c r="M9" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G10" t="s" s="0">
+      <c r="G10" t="s">
         <v>40</v>
       </c>
-      <c r="M10" t="s" s="0">
+      <c r="M10" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G11" t="s" s="0">
+      <c r="G11" t="s">
         <v>41</v>
       </c>
-      <c r="M11" t="s" s="0">
+      <c r="M11" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G12" t="s" s="0">
+      <c r="G12" t="s">
         <v>42</v>
       </c>
-      <c r="M12" t="s" s="0">
+      <c r="M12" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G13" t="s" s="0">
+      <c r="G13" t="s">
         <v>43</v>
       </c>
-      <c r="M13" t="s" s="0">
+      <c r="M13" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G14" t="s" s="0">
+      <c r="G14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G15" t="s" s="0">
+      <c r="G15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G16" t="s" s="0">
+      <c r="G16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G17" t="s" s="0">
+      <c r="G17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G18" t="s" s="0">
+      <c r="G18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G19" t="s" s="0">
+      <c r="G19" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G20" t="s" s="0">
+      <c r="G20" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G21" t="s" s="0">
+      <c r="G21" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1798,10 +1791,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.90625"/>
-    <col min="3" max="6" customWidth="true" style="4" width="23.90625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.36328125"/>
+    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="23.90625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -1828,10 +1821,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>177</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>178</v>
       </c>
       <c r="C2" s="14" t="str">
@@ -1844,7 +1837,7 @@
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1874,17 +1867,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="29.453125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="31.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.453125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.81640625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.90625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.6328125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="15.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="4" width="13.453125"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="4" width="12.54296875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="4" width="14.7265625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.36328125"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1923,19 +1916,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>147</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>148</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>149</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>150</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>151</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1953,7 +1946,7 @@
       <c r="J2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>134</v>
       </c>
     </row>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{37D342D6-A2AD-4D7F-BE68-D410C7B11180}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1400112F-CE05-4493-A1D7-20BB7EB51CC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="E1:I7"/>
+  <oleSize ref="F1:M7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -583,13 +583,13 @@
     <t>D9A922328B87D15BBC5F14E4300C664E</t>
   </si>
   <si>
-    <t>abhishektest18544@gmail.com</t>
-  </si>
-  <si>
-    <t>8073525044</t>
-  </si>
-  <si>
-    <t>AbhishekOrg18544</t>
+    <t>AbhishekOrg18545</t>
+  </si>
+  <si>
+    <t>abhishektest18545@gmail.com</t>
+  </si>
+  <si>
+    <t>8073525045</t>
   </si>
 </sst>
 </file>
@@ -1031,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1159,13 +1159,13 @@
         <v>176</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1181,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>174</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1400112F-CE05-4493-A1D7-20BB7EB51CC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{92F1DAC2-290B-4ABF-9C8C-4649E5670EE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="F1:M7"/>
+  <oleSize ref="O1:T7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -580,16 +580,16 @@
     <t>End Time</t>
   </si>
   <si>
-    <t>D9A922328B87D15BBC5F14E4300C664E</t>
-  </si>
-  <si>
-    <t>AbhishekOrg18545</t>
-  </si>
-  <si>
-    <t>abhishektest18545@gmail.com</t>
-  </si>
-  <si>
-    <t>8073525045</t>
+    <t>FBBCEEEDE55FBE80B0090374864F4775</t>
+  </si>
+  <si>
+    <t>AbhishekOrg18547</t>
+  </si>
+  <si>
+    <t>abhishektest18547@gmail.com</t>
+  </si>
+  <si>
+    <t>8073525047</t>
   </si>
 </sst>
 </file>
@@ -1031,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1181,7 +1181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{92F1DAC2-290B-4ABF-9C8C-4649E5670EE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C4D57957-5A05-474E-BB1C-EEF3291F9824}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindowsData" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="O1:T7"/>
+  <oleSize ref="G1:M7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -583,13 +583,13 @@
     <t>FBBCEEEDE55FBE80B0090374864F4775</t>
   </si>
   <si>
-    <t>AbhishekOrg18547</t>
-  </si>
-  <si>
-    <t>abhishektest18547@gmail.com</t>
-  </si>
-  <si>
-    <t>8073525047</t>
+    <t>8073525048</t>
+  </si>
+  <si>
+    <t>abhishektest18548@gmail.com</t>
+  </si>
+  <si>
+    <t>AbhishekOrg18548</t>
   </si>
 </sst>
 </file>
@@ -1031,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1165,7 +1165,7 @@
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1181,13 +1181,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6676362-AEF9-40F8-A00B-97DF2CB4169E}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.36328125" customWidth="1"/>
     <col min="2" max="2" width="32.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.36328125" bestFit="1" customWidth="1"/>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>174</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C4D57957-5A05-474E-BB1C-EEF3291F9824}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1681B0AA-9EB3-4C5B-8EB3-FB6742FD97F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Create New Task" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="G1:M7"/>
+  <oleSize ref="A1:E7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -553,15 +553,6 @@
     <t>Awaiting Response</t>
   </si>
   <si>
-    <t>AbhishekFNcd AbhishekLNcd</t>
-  </si>
-  <si>
-    <t>AbhishekFNcd</t>
-  </si>
-  <si>
-    <t>AbhishekLNcd</t>
-  </si>
-  <si>
     <t>AbhishekEvent</t>
   </si>
   <si>
@@ -580,16 +571,25 @@
     <t>End Time</t>
   </si>
   <si>
-    <t>FBBCEEEDE55FBE80B0090374864F4775</t>
-  </si>
-  <si>
-    <t>8073525048</t>
-  </si>
-  <si>
-    <t>abhishektest18548@gmail.com</t>
-  </si>
-  <si>
-    <t>AbhishekOrg18548</t>
+    <t>9FB60D0A7F0E0CF4F181D7676DCC0DCD</t>
+  </si>
+  <si>
+    <t>AbhishekFNsltsf</t>
+  </si>
+  <si>
+    <t>AbhishekLNsltsf</t>
+  </si>
+  <si>
+    <t>AbhishekFNeogsk AbhishekLNeogsk</t>
+  </si>
+  <si>
+    <t>AbhishekOrg400456</t>
+  </si>
+  <si>
+    <t>abhishektest400456@gmail.com</t>
+  </si>
+  <si>
+    <t>7720134956</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -1031,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1153,10 +1153,10 @@
         <v>77</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>185</v>
@@ -1165,7 +1165,7 @@
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1182,7 +1182,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1237,10 +1237,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>98</v>
@@ -1805,16 +1805,16 @@
         <v>136</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>137</v>
@@ -1822,10 +1822,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C2" s="14" t="str">
         <f>TEXT(C3,"dd-mm-yyyy")</f>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1681B0AA-9EB3-4C5B-8EB3-FB6742FD97F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8EBBCBE3-D081-446A-877D-1E50CB0E05E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="2550" tabRatio="780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -583,13 +583,13 @@
     <t>AbhishekFNeogsk AbhishekLNeogsk</t>
   </si>
   <si>
-    <t>AbhishekOrg400456</t>
-  </si>
-  <si>
-    <t>abhishektest400456@gmail.com</t>
-  </si>
-  <si>
-    <t>7720134956</t>
+    <t>AbhishekOrg400457</t>
+  </si>
+  <si>
+    <t>abhishektest400457@gmail.com</t>
+  </si>
+  <si>
+    <t>7720134957</t>
   </si>
 </sst>
 </file>
@@ -1031,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61302A63-C41D-4FB4-9166-44C925964CFA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -21,7 +21,7 @@
   <calcPr calcId="191029"/>
   <oleSize ref="A1:E7"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="210">
   <si>
     <t>Transport Type</t>
   </si>
@@ -590,12 +590,82 @@
   </si>
   <si>
     <t>7720134957</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>4D3D3EED4FDC3279938DACEBAAF9FD7B</t>
+  </si>
+  <si>
+    <t>35D8F545533DA407F3B674C41B91638D</t>
+  </si>
+  <si>
+    <t>C46C2AB79EB56F543D8B8920EF2A47AF</t>
+  </si>
+  <si>
+    <t>AbhishekOrg164870</t>
+  </si>
+  <si>
+    <t>AbhishekFNbcrbj</t>
+  </si>
+  <si>
+    <t>AbhishekLNbcrbj</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>AbhishekFNbcrbj AbhishekLNbcrbj</t>
+  </si>
+  <si>
+    <t>@.</t>
+  </si>
+  <si>
+    <t>abhishektest164870@gmail.com</t>
+  </si>
+  <si>
+    <t>7634319657</t>
+  </si>
+  <si>
+    <t>C63AF6E2E6E0FB7FF97BB34A0E4C95AE</t>
+  </si>
+  <si>
+    <t>AbhishekOrg627833</t>
+  </si>
+  <si>
+    <t>AbhishekFNgxgeh</t>
+  </si>
+  <si>
+    <t>AbhishekLNgxgeh</t>
+  </si>
+  <si>
+    <t>AbhishekFNgxgeh AbhishekLNgxgeh</t>
+  </si>
+  <si>
+    <t>abhishektest627833@gmail.com</t>
+  </si>
+  <si>
+    <t>6821969096</t>
+  </si>
+  <si>
+    <t>A699639406862AA32C3A6AB8BF088FA0</t>
+  </si>
+  <si>
+    <t>0E41EFB6C540B24696C600D0197FA47B</t>
+  </si>
+  <si>
+    <t>AF37D86C04D7F598360AC13D94DDD694</t>
+  </si>
+  <si>
+    <t>F49BF1016F44B046DFD857E00023846C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1001,9 +1071,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.08984375" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="34.08984375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.54296875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.90625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1016,8 +1086,8 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>180</v>
+      <c r="A2" t="s" s="0">
+        <v>209</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -1037,23 +1107,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="19.26953125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.7265625" customWidth="1"/>
-    <col min="17" max="17" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.6328125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.6328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.453125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.1796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.26953125"/>
+    <col min="6" max="7" customWidth="true" style="4" width="19.26953125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.36328125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="7.36328125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="8.08984375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.26953125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="5.08984375"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="16.26953125"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="16.1796875"/>
+    <col min="16" max="16" customWidth="true" width="35.7265625"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.453125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.6328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
@@ -1114,7 +1184,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1153,19 +1223,19 @@
         <v>77</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1187,17 +1257,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.36328125" customWidth="1"/>
-    <col min="2" max="2" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.36328125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="32.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.36328125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="25.81640625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="17.0"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.7265625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.0"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="9.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1237,10 +1307,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>98</v>
@@ -1306,16 +1376,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.81640625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.7265625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.90625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.81640625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.6328125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.6328125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.81640625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="17.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1410,10 +1480,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1431,16 +1501,16 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>104</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>131</v>
       </c>
     </row>
@@ -1460,10 +1530,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.36328125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.453125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.90625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.90625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1475,7 +1545,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>134</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1498,17 +1568,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.54296875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7265625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.26953125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.1796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.1796875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7265625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.36328125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="22.08984375"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="16.54296875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
@@ -1556,222 +1626,222 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" t="s" s="0">
         <v>161</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" t="s" s="0">
         <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" t="s" s="0">
         <v>162</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" t="s" s="0">
         <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" t="s" s="0">
         <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" t="s" s="0">
         <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" t="s" s="0">
         <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" t="s" s="0">
         <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" t="s" s="0">
         <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" t="s" s="0">
         <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" t="s" s="0">
         <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" t="s" s="0">
         <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" t="s" s="0">
         <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="0">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G16" t="s">
+      <c r="G16" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G21" t="s">
+      <c r="G21" t="s" s="0">
         <v>51</v>
       </c>
     </row>
@@ -1791,10 +1861,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="23.90625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.1796875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.90625"/>
+    <col min="3" max="6" customWidth="true" style="4" width="23.90625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.36328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -1821,10 +1891,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>174</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>175</v>
       </c>
       <c r="C2" s="14" t="str">
@@ -1837,7 +1907,7 @@
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>138</v>
       </c>
     </row>
@@ -1867,17 +1937,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.453125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.453125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.81640625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.90625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.6328125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="15.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="4" width="13.453125"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="4" width="12.54296875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="4" width="14.7265625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="14.36328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1916,19 +1986,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>150</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>151</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1946,7 +2016,7 @@
       <c r="J2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>134</v>
       </c>
     </row>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="224">
   <si>
     <t>Transport Type</t>
   </si>
@@ -659,6 +659,48 @@
   </si>
   <si>
     <t>F49BF1016F44B046DFD857E00023846C</t>
+  </si>
+  <si>
+    <t>D37A488E7F7BF8ACCCAB996B7B77BF3F</t>
+  </si>
+  <si>
+    <t>AbhishekOrg347391</t>
+  </si>
+  <si>
+    <t>AbhishekFNmvkrb</t>
+  </si>
+  <si>
+    <t>AbhishekLNmvkrb</t>
+  </si>
+  <si>
+    <t>AbhishekFNmvkrb AbhishekLNmvkrb</t>
+  </si>
+  <si>
+    <t>abhishektest347391@gmail.com</t>
+  </si>
+  <si>
+    <t>6120809295</t>
+  </si>
+  <si>
+    <t>028360D0F0BB417ACA51653BF9880196</t>
+  </si>
+  <si>
+    <t>AbhishekOrg341457</t>
+  </si>
+  <si>
+    <t>AbhishekFNzlyzv</t>
+  </si>
+  <si>
+    <t>AbhishekLNzlyzv</t>
+  </si>
+  <si>
+    <t>AbhishekFNzlyzv AbhishekLNzlyzv</t>
+  </si>
+  <si>
+    <t>abhishektest341457@gmail.com</t>
+  </si>
+  <si>
+    <t>6497571190</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1129,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -1184,7 +1226,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1223,19 +1265,19 @@
         <v>77</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -1307,10 +1349,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>98</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="229">
   <si>
     <t>Transport Type</t>
   </si>
@@ -701,6 +701,21 @@
   </si>
   <si>
     <t>6497571190</t>
+  </si>
+  <si>
+    <t>206324F2A1F4D518C6EDFA0EE8ABBB87</t>
+  </si>
+  <si>
+    <t>51BDD57696B1314A200459402A79FF51</t>
+  </si>
+  <si>
+    <t>694970241EB946B4A4AEF7BCDA549F64</t>
+  </si>
+  <si>
+    <t>ADA52B2817B85B6FCBA244FD50167D5D</t>
+  </si>
+  <si>
+    <t>403D1DD76D9148F01CE779633DC48FC9</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1144,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="E2" s="3"/>
     </row>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="243">
   <si>
     <t>Transport Type</t>
   </si>
@@ -716,6 +716,48 @@
   </si>
   <si>
     <t>403D1DD76D9148F01CE779633DC48FC9</t>
+  </si>
+  <si>
+    <t>B489B488E1C414AD483383A473FB0C11</t>
+  </si>
+  <si>
+    <t>AbhishekOrg455362</t>
+  </si>
+  <si>
+    <t>AbhishekFNnbnhv</t>
+  </si>
+  <si>
+    <t>AbhishekLNnbnhv</t>
+  </si>
+  <si>
+    <t>AbhishekFNnbnhv AbhishekLNnbnhv</t>
+  </si>
+  <si>
+    <t>abhishektest455362@gmail.com</t>
+  </si>
+  <si>
+    <t>9136646832</t>
+  </si>
+  <si>
+    <t>039C3C268A4562FD089DFED90C0FBF05</t>
+  </si>
+  <si>
+    <t>AbhishekOrg856604</t>
+  </si>
+  <si>
+    <t>AbhishekFNacxeg</t>
+  </si>
+  <si>
+    <t>AbhishekLNacxeg</t>
+  </si>
+  <si>
+    <t>AbhishekFNacxeg AbhishekLNacxeg</t>
+  </si>
+  <si>
+    <t>abhishektest856604@gmail.com</t>
+  </si>
+  <si>
+    <t>8958524287</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1186,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -1241,7 +1283,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1280,19 +1322,19 @@
         <v>77</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -1364,10 +1406,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>98</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="252">
   <si>
     <t>Transport Type</t>
   </si>
@@ -758,6 +758,33 @@
   </si>
   <si>
     <t>8958524287</t>
+  </si>
+  <si>
+    <t>625CA909351AE13CA20FCAD9F90D1135</t>
+  </si>
+  <si>
+    <t>87D62C429CF282B87BF2D7C4B2B1E054</t>
+  </si>
+  <si>
+    <t>EA05E0D3108FB2F4759745012CCB9A40</t>
+  </si>
+  <si>
+    <t>743219F2B7989531F20C0492B5AD772C</t>
+  </si>
+  <si>
+    <t>5D81B703F5AFC6B2E652D1FB537D4D62</t>
+  </si>
+  <si>
+    <t>25DC7D828070AF640906615D56BFAFA8</t>
+  </si>
+  <si>
+    <t>A3EAA9EA867C2D6ECAE116C9ECCEC6B6</t>
+  </si>
+  <si>
+    <t>AD96EB73E5CC21CF8E69AB3AB3D1B6D8</t>
+  </si>
+  <si>
+    <t>4DC9989738DB2A3CEC864F4544C5F5E9</t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1213,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="E2" s="3"/>
     </row>
